--- a/задание по ексель.xlsx
+++ b/задание по ексель.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huawei\Desktop\Восстановление\Талгат\SQL\finish project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huawei\Desktop\Восстановление\Талгат\SQL\finish project\Финальные файлы по проекту\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBF8906-5F63-4560-A09A-C122864D99AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEEC9CA-AA54-4CA4-8F8C-E521245997DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Совмещенные данные" sheetId="1" r:id="rId1"/>
@@ -21,27 +21,26 @@
     <sheet name="сводная таблица в разрезе недел" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Лист1A1M505" hidden="1">'Расчеты '!$A$1:$M$505</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Лист1A1N505" hidden="1">'Расчеты '!$A$1:$N$505</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Лист1A2N5051" hidden="1">'Расчеты '!$A$2:$N$505</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Лист1A1M5051" hidden="1">'Расчеты '!$A$1:$M$505</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Лист1A1N5051" hidden="1">'Расчеты '!$A$1:$N$505</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Лист1A2N505" hidden="1">'Расчеты '!$A$2:$N$505</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
     <pivotCache cacheId="2" r:id="rId8"/>
     <pivotCache cacheId="3" r:id="rId9"/>
     <pivotCache cacheId="4" r:id="rId10"/>
     <pivotCache cacheId="5" r:id="rId11"/>
-    <pivotCache cacheId="6" r:id="rId12"/>
+    <pivotCache cacheId="14" r:id="rId12"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
+          <x15:modelTable id="Диапазон 2" name="Диапазон 2" connection="WorksheetConnection_Лист1!$A$2:$N$505"/>
+          <x15:modelTable id="Диапазон 1" name="Диапазон 1" connection="WorksheetConnection_Лист1!$A$1:$N$505"/>
           <x15:modelTable id="Диапазон" name="Диапазон" connection="WorksheetConnection_Лист1!$A$1:$M$505"/>
-          <x15:modelTable id="Диапазон 1" name="Диапазон 1" connection="WorksheetConnection_Лист1!$A$1:$N$505"/>
-          <x15:modelTable id="Диапазон 2" name="Диапазон 2" connection="WorksheetConnection_Лист1!$A$2:$N$505"/>
         </x15:modelTables>
       </x15:dataModel>
     </ext>
@@ -73,7 +72,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Диапазон" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Лист1A1M505"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Лист1A1M5051"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -82,7 +81,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Диапазон 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Лист1A1N505"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Лист1A1N5051"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -91,7 +90,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Диапазон 2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Лист1A2N5051"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Лист1A2N505"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -239,7 +238,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +306,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -465,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -524,11 +529,48 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1957,205 +1999,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Huawei" refreshedDate="45679.49288020833" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{91810E18-C0EF-4228-A9F1-CDECA9E5620F}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Сумма по столбцу Товарооборот на склад]" caption="Сумма по столбцу Товарооборот на склад" numFmtId="0" hierarchy="53" level="32767"/>
-    <cacheField name="[Диапазон 1].[Территория].[Территория]" caption="Территория" numFmtId="0" hierarchy="14" level="1">
-      <sharedItems count="18">
-        <s v="Волгоград"/>
-        <s v="Екатеринбург"/>
-        <s v="Казань"/>
-        <s v="Кемерово"/>
-        <s v="Краснодар"/>
-        <s v="Москва Восток"/>
-        <s v="Москва Запад"/>
-        <s v="Нижний Новгород"/>
-        <s v="Новосибирск"/>
-        <s v="Пермь"/>
-        <s v="Ростов-на-Дону"/>
-        <s v="Самара"/>
-        <s v="Санкт-Петербург Север"/>
-        <s v="Санкт-Петербург Юг"/>
-        <s v="Тольятти"/>
-        <s v="Томск"/>
-        <s v="Тюмень"/>
-        <s v="Уфа"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="58">
-    <cacheHierarchy uniqueName="[Диапазон].[Дата]" caption="Дата" attribute="1" time="1" defaultMemberUniqueName="[Диапазон].[Дата].[All]" allUniqueName="[Диапазон].[Дата].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Территория]" caption="Территория" attribute="1" defaultMemberUniqueName="[Диапазон].[Территория].[All]" allUniqueName="[Диапазон].[Территория].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Товарооборот, шт]" caption="Товарооборот, шт" attribute="1" defaultMemberUniqueName="[Диапазон].[Товарооборот, шт].[All]" allUniqueName="[Диапазон].[Товарооборот, шт].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Товарооборот, руб]" caption="Товарооборот, руб" attribute="1" defaultMemberUniqueName="[Диапазон].[Товарооборот, руб].[All]" allUniqueName="[Диапазон].[Товарооборот, руб].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Товарооборот в себестоимости]" caption="Товарооборот в себестоимости" attribute="1" defaultMemberUniqueName="[Диапазон].[Товарооборот в себестоимости].[All]" allUniqueName="[Диапазон].[Товарооборот в себестоимости].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Потери, руб]" caption="Потери, руб" attribute="1" defaultMemberUniqueName="[Диапазон].[Потери, руб].[All]" allUniqueName="[Диапазон].[Потери, руб].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Количество складов]" caption="Количество складов" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество складов].[All]" allUniqueName="[Диапазон].[Количество складов].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Количество заказов]" caption="Количество заказов" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество заказов].[All]" allUniqueName="[Диапазон].[Количество заказов].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Количество клиентов]" caption="Количество клиентов" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество клиентов].[All]" allUniqueName="[Диапазон].[Количество клиентов].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Объеденение]" caption="Объеденение" attribute="1" defaultMemberUniqueName="[Диапазон].[Объеденение].[All]" allUniqueName="[Диапазон].[Объеденение].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Номер недели]" caption="Номер недели" attribute="1" defaultMemberUniqueName="[Диапазон].[Номер недели].[All]" allUniqueName="[Диапазон].[Номер недели].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Наценка в %]" caption="Наценка в %" attribute="1" defaultMemberUniqueName="[Диапазон].[Наценка в %].[All]" allUniqueName="[Диапазон].[Наценка в %].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон].[Доходность (%)]" caption="Доходность (%)" attribute="1" defaultMemberUniqueName="[Диапазон].[Доходность (%)].[All]" allUniqueName="[Диапазон].[Доходность (%)].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Дата]" caption="Дата" attribute="1" time="1" defaultMemberUniqueName="[Диапазон 1].[Дата].[All]" allUniqueName="[Диапазон 1].[Дата].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Территория]" caption="Территория" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Территория].[All]" allUniqueName="[Диапазон 1].[Территория].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот, шт]" caption="Товарооборот, шт" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот, шт].[All]" allUniqueName="[Диапазон 1].[Товарооборот, шт].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот, руб]" caption="Товарооборот, руб" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот, руб].[All]" allUniqueName="[Диапазон 1].[Товарооборот, руб].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот в себестоимости]" caption="Товарооборот в себестоимости" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот в себестоимости].[All]" allUniqueName="[Диапазон 1].[Товарооборот в себестоимости].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Потери, руб]" caption="Потери, руб" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Потери, руб].[All]" allUniqueName="[Диапазон 1].[Потери, руб].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Количество складов]" caption="Количество складов" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Количество складов].[All]" allUniqueName="[Диапазон 1].[Количество складов].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Количество заказов]" caption="Количество заказов" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Количество заказов].[All]" allUniqueName="[Диапазон 1].[Количество заказов].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Количество клиентов]" caption="Количество клиентов" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Количество клиентов].[All]" allUniqueName="[Диапазон 1].[Количество клиентов].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Объеденение]" caption="Объеденение" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Объеденение].[All]" allUniqueName="[Диапазон 1].[Объеденение].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Номер недели]" caption="Номер недели" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Номер недели].[All]" allUniqueName="[Диапазон 1].[Номер недели].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Наценка в %]" caption="Наценка в %" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Наценка в %].[All]" allUniqueName="[Диапазон 1].[Наценка в %].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Доходность (%)]" caption="Доходность (%)" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Доходность (%)].[All]" allUniqueName="[Диапазон 1].[Доходность (%)].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот на склад]" caption="Товарооборот на склад" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот на склад].[All]" allUniqueName="[Диапазон 1].[Товарооборот на склад].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[2020-05-31]" caption="2020-05-31" attribute="1" time="1" defaultMemberUniqueName="[Диапазон 2].[2020-05-31].[All]" allUniqueName="[Диапазон 2].[2020-05-31].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[Самара]" caption="Самара" attribute="1" defaultMemberUniqueName="[Диапазон 2].[Самара].[All]" allUniqueName="[Диапазон 2].[Самара].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[7944]" caption="7944" attribute="1" defaultMemberUniqueName="[Диапазон 2].[7944].[All]" allUniqueName="[Диапазон 2].[7944].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[623971.5]" caption="623971.5" attribute="1" defaultMemberUniqueName="[Диапазон 2].[623971.5].[All]" allUniqueName="[Диапазон 2].[623971.5].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[565363.016]" caption="565363.016" attribute="1" defaultMemberUniqueName="[Диапазон 2].[565363.016].[All]" allUniqueName="[Диапазон 2].[565363.016].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[64235.45692]" caption="64235.45692" attribute="1" defaultMemberUniqueName="[Диапазон 2].[64235.45692].[All]" allUniqueName="[Диапазон 2].[64235.45692].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[15]" caption="15" attribute="1" defaultMemberUniqueName="[Диапазон 2].[15].[All]" allUniqueName="[Диапазон 2].[15].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[441]" caption="441" attribute="1" defaultMemberUniqueName="[Диапазон 2].[441].[All]" allUniqueName="[Диапазон 2].[441].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[368]" caption="368" attribute="1" defaultMemberUniqueName="[Диапазон 2].[368].[All]" allUniqueName="[Диапазон 2].[368].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[43982Самара]" caption="43982Самара" attribute="1" defaultMemberUniqueName="[Диапазон 2].[43982Самара].[All]" allUniqueName="[Диапазон 2].[43982Самара].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[23]" caption="23" attribute="1" defaultMemberUniqueName="[Диапазон 2].[23].[All]" allUniqueName="[Диапазон 2].[23].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[1036.65%]" caption="1036.65%" attribute="1" defaultMemberUniqueName="[Диапазон 2].[1036.65%].[All]" allUniqueName="[Диапазон 2].[1036.65%].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[939.3%]" caption="939.3%" attribute="1" defaultMemberUniqueName="[Диапазон 2].[939.3%].[All]" allUniqueName="[Диапазон 2].[939.3%].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Диапазон 2].[529.6]" caption="529.6" attribute="1" defaultMemberUniqueName="[Диапазон 2].[529.6].[All]" allUniqueName="[Диапазон 2].[529.6].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон]" caption="__XL_Count Диапазон" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон 1]" caption="__XL_Count Диапазон 1" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон 2]" caption="__XL_Count Диапазон 2" measure="1" displayFolder="" measureGroup="Диапазон 2" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, руб]" caption="Сумма по столбцу Товарооборот, руб" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="3"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Доходность (%)]" caption="Сумма по столбцу Доходность (%)" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="12"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Номер недели]" caption="Сумма по столбцу Номер недели" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="10"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, шт]" caption="Сумма по столбцу Товарооборот, шт" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="2"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Количество складов]" caption="Сумма по столбцу Количество складов" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, шт 2]" caption="Сумма по столбцу Товарооборот, шт 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Количество складов 2]" caption="Сумма по столбцу Количество складов 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="19"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Номер недели 2]" caption="Сумма по столбцу Номер недели 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот на склад]" caption="Сумма по столбцу Товарооборот на склад" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="26"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, руб 2]" caption="Сумма по столбцу Товарооборот, руб 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот в себестоимости]" caption="Сумма по столбцу Товарооборот в себестоимости" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Наценка в %]" caption="Сумма по столбцу Наценка в %" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Доходность (%) 2]" caption="Сумма по столбцу Доходность (%) 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="4">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Диапазон" uniqueName="[Диапазон]" caption="Диапазон"/>
-    <dimension name="Диапазон 1" uniqueName="[Диапазон 1]" caption="Диапазон 1"/>
-    <dimension name="Диапазон 2" uniqueName="[Диапазон 2]" caption="Диапазон 2"/>
-  </dimensions>
-  <measureGroups count="3">
-    <measureGroup name="Диапазон" caption="Диапазон"/>
-    <measureGroup name="Диапазон 1" caption="Диапазон 1"/>
-    <measureGroup name="Диапазон 2" caption="Диапазон 2"/>
-  </measureGroups>
-  <maps count="3">
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Huawei" refreshedDate="45679.481978356482" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{46D3AD87-A724-48A9-831B-82CBC4E5D14C}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -2358,7 +2201,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Huawei" refreshedDate="45679.03509085648" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{417126B1-4889-4484-AAA2-4E8064DDC933}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -2584,7 +2427,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Huawei" refreshedDate="45679.501877546296" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B7DE3DDF-69C5-44EF-9160-527DA526B0CF}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
@@ -2795,7 +2638,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Huawei" refreshedDate="45679.509054745373" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{DFC89750-D3E1-48EB-9DBB-AAF141A6CEBB}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -3021,8 +2864,207 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Huawei" refreshedDate="45679.818509027777" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{91810E18-C0EF-4228-A9F1-CDECA9E5620F}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Диапазон 1].[Территория].[Территория]" caption="Территория" numFmtId="0" hierarchy="14" level="1">
+      <sharedItems count="18">
+        <s v="Волгоград"/>
+        <s v="Екатеринбург"/>
+        <s v="Казань"/>
+        <s v="Кемерово"/>
+        <s v="Краснодар"/>
+        <s v="Москва Восток"/>
+        <s v="Москва Запад"/>
+        <s v="Нижний Новгород"/>
+        <s v="Новосибирск"/>
+        <s v="Пермь"/>
+        <s v="Ростов-на-Дону"/>
+        <s v="Самара"/>
+        <s v="Санкт-Петербург Север"/>
+        <s v="Санкт-Петербург Юг"/>
+        <s v="Тольятти"/>
+        <s v="Томск"/>
+        <s v="Тюмень"/>
+        <s v="Уфа"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Сумма по столбцу Товарооборот на склад]" caption="Сумма по столбцу Товарооборот на склад" numFmtId="0" hierarchy="53" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="58">
+    <cacheHierarchy uniqueName="[Диапазон].[Дата]" caption="Дата" attribute="1" time="1" defaultMemberUniqueName="[Диапазон].[Дата].[All]" allUniqueName="[Диапазон].[Дата].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Территория]" caption="Территория" attribute="1" defaultMemberUniqueName="[Диапазон].[Территория].[All]" allUniqueName="[Диапазон].[Территория].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Товарооборот, шт]" caption="Товарооборот, шт" attribute="1" defaultMemberUniqueName="[Диапазон].[Товарооборот, шт].[All]" allUniqueName="[Диапазон].[Товарооборот, шт].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Товарооборот, руб]" caption="Товарооборот, руб" attribute="1" defaultMemberUniqueName="[Диапазон].[Товарооборот, руб].[All]" allUniqueName="[Диапазон].[Товарооборот, руб].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Товарооборот в себестоимости]" caption="Товарооборот в себестоимости" attribute="1" defaultMemberUniqueName="[Диапазон].[Товарооборот в себестоимости].[All]" allUniqueName="[Диапазон].[Товарооборот в себестоимости].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Потери, руб]" caption="Потери, руб" attribute="1" defaultMemberUniqueName="[Диапазон].[Потери, руб].[All]" allUniqueName="[Диапазон].[Потери, руб].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Количество складов]" caption="Количество складов" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество складов].[All]" allUniqueName="[Диапазон].[Количество складов].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Количество заказов]" caption="Количество заказов" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество заказов].[All]" allUniqueName="[Диапазон].[Количество заказов].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Количество клиентов]" caption="Количество клиентов" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество клиентов].[All]" allUniqueName="[Диапазон].[Количество клиентов].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Объеденение]" caption="Объеденение" attribute="1" defaultMemberUniqueName="[Диапазон].[Объеденение].[All]" allUniqueName="[Диапазон].[Объеденение].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Номер недели]" caption="Номер недели" attribute="1" defaultMemberUniqueName="[Диапазон].[Номер недели].[All]" allUniqueName="[Диапазон].[Номер недели].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Наценка в %]" caption="Наценка в %" attribute="1" defaultMemberUniqueName="[Диапазон].[Наценка в %].[All]" allUniqueName="[Диапазон].[Наценка в %].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[Доходность (%)]" caption="Доходность (%)" attribute="1" defaultMemberUniqueName="[Диапазон].[Доходность (%)].[All]" allUniqueName="[Диапазон].[Доходность (%)].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Дата]" caption="Дата" attribute="1" time="1" defaultMemberUniqueName="[Диапазон 1].[Дата].[All]" allUniqueName="[Диапазон 1].[Дата].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Территория]" caption="Территория" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Территория].[All]" allUniqueName="[Диапазон 1].[Территория].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот, шт]" caption="Товарооборот, шт" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот, шт].[All]" allUniqueName="[Диапазон 1].[Товарооборот, шт].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот, руб]" caption="Товарооборот, руб" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот, руб].[All]" allUniqueName="[Диапазон 1].[Товарооборот, руб].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот в себестоимости]" caption="Товарооборот в себестоимости" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот в себестоимости].[All]" allUniqueName="[Диапазон 1].[Товарооборот в себестоимости].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Потери, руб]" caption="Потери, руб" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Потери, руб].[All]" allUniqueName="[Диапазон 1].[Потери, руб].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Количество складов]" caption="Количество складов" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Количество складов].[All]" allUniqueName="[Диапазон 1].[Количество складов].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Количество заказов]" caption="Количество заказов" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Количество заказов].[All]" allUniqueName="[Диапазон 1].[Количество заказов].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Количество клиентов]" caption="Количество клиентов" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Количество клиентов].[All]" allUniqueName="[Диапазон 1].[Количество клиентов].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Объеденение]" caption="Объеденение" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Объеденение].[All]" allUniqueName="[Диапазон 1].[Объеденение].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Номер недели]" caption="Номер недели" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Номер недели].[All]" allUniqueName="[Диапазон 1].[Номер недели].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Наценка в %]" caption="Наценка в %" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Наценка в %].[All]" allUniqueName="[Диапазон 1].[Наценка в %].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Доходность (%)]" caption="Доходность (%)" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Доходность (%)].[All]" allUniqueName="[Диапазон 1].[Доходность (%)].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 1].[Товарооборот на склад]" caption="Товарооборот на склад" attribute="1" defaultMemberUniqueName="[Диапазон 1].[Товарооборот на склад].[All]" allUniqueName="[Диапазон 1].[Товарооборот на склад].[All]" dimensionUniqueName="[Диапазон 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[2020-05-31]" caption="2020-05-31" attribute="1" time="1" defaultMemberUniqueName="[Диапазон 2].[2020-05-31].[All]" allUniqueName="[Диапазон 2].[2020-05-31].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[Самара]" caption="Самара" attribute="1" defaultMemberUniqueName="[Диапазон 2].[Самара].[All]" allUniqueName="[Диапазон 2].[Самара].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[7944]" caption="7944" attribute="1" defaultMemberUniqueName="[Диапазон 2].[7944].[All]" allUniqueName="[Диапазон 2].[7944].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[623971.5]" caption="623971.5" attribute="1" defaultMemberUniqueName="[Диапазон 2].[623971.5].[All]" allUniqueName="[Диапазон 2].[623971.5].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[565363.016]" caption="565363.016" attribute="1" defaultMemberUniqueName="[Диапазон 2].[565363.016].[All]" allUniqueName="[Диапазон 2].[565363.016].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[64235.45692]" caption="64235.45692" attribute="1" defaultMemberUniqueName="[Диапазон 2].[64235.45692].[All]" allUniqueName="[Диапазон 2].[64235.45692].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[15]" caption="15" attribute="1" defaultMemberUniqueName="[Диапазон 2].[15].[All]" allUniqueName="[Диапазон 2].[15].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[441]" caption="441" attribute="1" defaultMemberUniqueName="[Диапазон 2].[441].[All]" allUniqueName="[Диапазон 2].[441].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[368]" caption="368" attribute="1" defaultMemberUniqueName="[Диапазон 2].[368].[All]" allUniqueName="[Диапазон 2].[368].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[43982Самара]" caption="43982Самара" attribute="1" defaultMemberUniqueName="[Диапазон 2].[43982Самара].[All]" allUniqueName="[Диапазон 2].[43982Самара].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[23]" caption="23" attribute="1" defaultMemberUniqueName="[Диапазон 2].[23].[All]" allUniqueName="[Диапазон 2].[23].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[1036.65%]" caption="1036.65%" attribute="1" defaultMemberUniqueName="[Диапазон 2].[1036.65%].[All]" allUniqueName="[Диапазон 2].[1036.65%].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[939.3%]" caption="939.3%" attribute="1" defaultMemberUniqueName="[Диапазон 2].[939.3%].[All]" allUniqueName="[Диапазон 2].[939.3%].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон 2].[529.6]" caption="529.6" attribute="1" defaultMemberUniqueName="[Диапазон 2].[529.6].[All]" allUniqueName="[Диапазон 2].[529.6].[All]" dimensionUniqueName="[Диапазон 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон]" caption="__XL_Count Диапазон" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон 1]" caption="__XL_Count Диапазон 1" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон 2]" caption="__XL_Count Диапазон 2" measure="1" displayFolder="" measureGroup="Диапазон 2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, руб]" caption="Сумма по столбцу Товарооборот, руб" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Доходность (%)]" caption="Сумма по столбцу Доходность (%)" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="12"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Номер недели]" caption="Сумма по столбцу Номер недели" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="10"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, шт]" caption="Сумма по столбцу Товарооборот, шт" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Количество складов]" caption="Сумма по столбцу Количество складов" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, шт 2]" caption="Сумма по столбцу Товарооборот, шт 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Количество складов 2]" caption="Сумма по столбцу Количество складов 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="19"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Номер недели 2]" caption="Сумма по столбцу Номер недели 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот на склад]" caption="Сумма по столбцу Товарооборот на склад" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="26"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот, руб 2]" caption="Сумма по столбцу Товарооборот, руб 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Товарооборот в себестоимости]" caption="Сумма по столбцу Товарооборот в себестоимости" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Наценка в %]" caption="Сумма по столбцу Наценка в %" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Доходность (%) 2]" caption="Сумма по столбцу Доходность (%) 2" measure="1" displayFolder="" measureGroup="Диапазон 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="4">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Диапазон" uniqueName="[Диапазон]" caption="Диапазон"/>
+    <dimension name="Диапазон 1" uniqueName="[Диапазон 1]" caption="Диапазон 1"/>
+    <dimension name="Диапазон 2" uniqueName="[Диапазон 2]" caption="Диапазон 2"/>
+  </dimensions>
+  <measureGroups count="3">
+    <measureGroup name="Диапазон" caption="Диапазон"/>
+    <measureGroup name="Диапазон 1" caption="Диапазон 1"/>
+    <measureGroup name="Диапазон 2" caption="Диапазон 2"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01353A21-2B19-4A24-A886-89DD6CEBF972}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01353A21-2B19-4A24-A886-89DD6CEBF972}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A1:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3183,11 +3225,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37042884-200E-4C3F-AEB6-DE0D6CFAF024}" name="Сводная таблица4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37042884-200E-4C3F-AEB6-DE0D6CFAF024}" name="Сводная таблица4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F9:G28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="18">
         <item x="0"/>
         <item x="1"/>
@@ -3208,38 +3249,18 @@
         <item x="16"/>
         <item x="17"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="19">
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="12"/>
+      <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i>
       <x v="2"/>
@@ -3248,34 +3269,46 @@
       <x v="3"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
       <x v="17"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -3285,13 +3318,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Сумма по столбцу Товарооборот на склад" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по столбцу Товарооборот на склад" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="3">
+          <reference field="0" count="3">
             <x v="5"/>
             <x v="6"/>
             <x v="12"/>
@@ -3299,10 +3332,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="3">
+          <reference field="0" count="3">
             <x v="5"/>
             <x v="6"/>
             <x v="12"/>
@@ -3392,7 +3425,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{468AB5A7-53BE-4880-A315-96C750545BB1}" name="Сводная таблица3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{468AB5A7-53BE-4880-A315-96C750545BB1}" name="Сводная таблица3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3533,7 +3566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BFF18FA-E8FF-49A3-91C5-5BD0DE86AED1}" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BFF18FA-E8FF-49A3-91C5-5BD0DE86AED1}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B100" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3961,7 +3994,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1175178B-E458-422A-BDBB-BE7B4B45BF87}" name="Сводная таблица5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1175178B-E458-422A-BDBB-BE7B4B45BF87}" name="Сводная таблица5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:E20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4160,7 +4193,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E8668A0-1B53-4206-8ADA-C39A3DF7A319}" name="Сводная таблица6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E8668A0-1B53-4206-8ADA-C39A3DF7A319}" name="Сводная таблица6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B100" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -15911,8 +15944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16035,8 +16068,8 @@
         <v>9.3928142551382638</v>
       </c>
       <c r="N2">
-        <f xml:space="preserve"> C2/G2</f>
-        <v>529.6</v>
+        <f xml:space="preserve"> D2/G2</f>
+        <v>41598.1</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16087,8 +16120,8 @@
         <v>10.093541870738324</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="4" xml:space="preserve"> C3/G3</f>
-        <v>668.6</v>
+        <f t="shared" ref="N3:N66" si="4" xml:space="preserve"> D3/G3</f>
+        <v>52473.4</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16140,7 +16173,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>569.1</v>
+        <v>42929.599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16192,7 +16225,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>1854.6428571428571</v>
+        <v>161709.14285714287</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16244,7 +16277,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>1516.2857142857142</v>
+        <v>131957.92857142858</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16296,7 +16329,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>1524.9285714285713</v>
+        <v>137259.92857142858</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16348,7 +16381,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>1483.2142857142858</v>
+        <v>134810.42857142858</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16400,7 +16433,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>1278.3</v>
+        <v>118615.5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16452,7 +16485,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>1628.8333333333333</v>
+        <v>145748.91666666666</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16504,7 +16537,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>1612.8333333333333</v>
+        <v>150624.83333333334</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16556,7 +16589,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>1671.15</v>
+        <v>148516.5</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16608,7 +16641,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>1804.8333333333333</v>
+        <v>168403</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16660,7 +16693,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>1343.7857142857142</v>
+        <v>123608.5</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16712,7 +16745,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>1489.1428571428571</v>
+        <v>130684.85714285714</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16764,7 +16797,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>1622.7142857142858</v>
+        <v>139491.92857142858</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16816,7 +16849,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>1578.3</v>
+        <v>145338.15</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16868,7 +16901,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>1496.6666666666667</v>
+        <v>133977.08333333334</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16920,7 +16953,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>1392.4285714285713</v>
+        <v>125227.71428571429</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16972,7 +17005,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>1304.0999999999999</v>
+        <v>121745.7</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17024,7 +17057,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>1625.55</v>
+        <v>146931.15</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17076,7 +17109,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>2033.5</v>
+        <v>172796.5</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17128,7 +17161,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>1779.6</v>
+        <v>158829</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17180,7 +17213,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>1602.3947368421052</v>
+        <v>148273.5</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17232,7 +17265,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>1743.7857142857142</v>
+        <v>157760.35714285713</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17284,7 +17317,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>1400.4285714285713</v>
+        <v>125960</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17336,7 +17369,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>1286.5714285714287</v>
+        <v>117724.42857142857</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17388,7 +17421,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>1715.175</v>
+        <v>146237.32500000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17440,7 +17473,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>1761.8571428571429</v>
+        <v>165423.57142857142</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17492,7 +17525,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>2200.0500000000002</v>
+        <v>196089.22500000001</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17544,7 +17577,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>1549.125</v>
+        <v>141388.65</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17596,7 +17629,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>2840.7580645161293</v>
+        <v>244637.37096774194</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17648,7 +17681,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>2710.4516129032259</v>
+        <v>219855.19354838709</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17700,7 +17733,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>2517.9677419354839</v>
+        <v>218546.66129032258</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17752,7 +17785,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>2249.0322580645161</v>
+        <v>202094.61290322582</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17804,7 +17837,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>2352.5322580645161</v>
+        <v>214266.09677419355</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17856,7 +17889,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>2565.3870967741937</v>
+        <v>231628.98387096773</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17908,7 +17941,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>1950.4354838709678</v>
+        <v>179167.5</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17960,7 +17993,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
-        <v>2579.8548387096776</v>
+        <v>215369.66129032258</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18012,7 +18045,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="4"/>
-        <v>3146.2741935483873</v>
+        <v>286871.75806451612</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18064,7 +18097,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="4"/>
-        <v>2307.0967741935483</v>
+        <v>206398.74193548388</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18116,7 +18149,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>2564.0322580645161</v>
+        <v>213995.0806451613</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18168,7 +18201,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="4"/>
-        <v>3010.1129032258063</v>
+        <v>233792.75806451612</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18220,7 +18253,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>2470.5</v>
+        <v>223268.27419354839</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18272,7 +18305,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="4"/>
-        <v>2639.5645161290322</v>
+        <v>231085.30645161291</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18324,7 +18357,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="4"/>
-        <v>2543.4193548387098</v>
+        <v>225611.37096774194</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18376,7 +18409,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>2492.3709677419356</v>
+        <v>226247.4193548387</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18428,7 +18461,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="4"/>
-        <v>2225.6129032258063</v>
+        <v>198988.93548387097</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18480,7 +18513,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="4"/>
-        <v>3319.016129032258</v>
+        <v>260940.09677419355</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18532,7 +18565,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="4"/>
-        <v>2483.8548387096776</v>
+        <v>214374.29032258064</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18584,7 +18617,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>2502.0967741935483</v>
+        <v>226571.85483870967</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18636,7 +18669,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="4"/>
-        <v>2713.9354838709678</v>
+        <v>241393.35483870967</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18688,7 +18721,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="4"/>
-        <v>2243.3709677419356</v>
+        <v>203025.04838709679</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18740,7 +18773,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="4"/>
-        <v>2361.4354838709678</v>
+        <v>212641.40322580645</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18792,7 +18825,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="4"/>
-        <v>2473.016129032258</v>
+        <v>208097.80645161291</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18844,7 +18877,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="4"/>
-        <v>1426.5</v>
+        <v>113050.65</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18896,7 +18929,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="4"/>
-        <v>1152.5999999999999</v>
+        <v>93876.45</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18948,7 +18981,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="4"/>
-        <v>1040.25</v>
+        <v>84372.75</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19000,7 +19033,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="4"/>
-        <v>1321.65</v>
+        <v>104640</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19052,7 +19085,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="4"/>
-        <v>913.05</v>
+        <v>72889.05</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19104,7 +19137,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="4"/>
-        <v>1084.05</v>
+        <v>79791.899999999994</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19156,7 +19189,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="4"/>
-        <v>786.6</v>
+        <v>61788.15</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19208,7 +19241,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="4"/>
-        <v>1183.5</v>
+        <v>98310.9</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19260,7 +19293,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="4"/>
-        <v>1161.9000000000001</v>
+        <v>89113.95</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19312,7 +19345,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="4"/>
-        <v>932.85</v>
+        <v>73296.45</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19364,7 +19397,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="4"/>
-        <v>1125</v>
+        <v>93552.3</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19415,8 +19448,8 @@
         <v>12.221424115953104</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="9" xml:space="preserve"> C67/G67</f>
-        <v>1306.3499999999999</v>
+        <f t="shared" ref="N67:N130" si="9" xml:space="preserve"> D67/G67</f>
+        <v>103724.7</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19468,7 +19501,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="9"/>
-        <v>1014.75</v>
+        <v>79332</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19520,7 +19553,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="9"/>
-        <v>1233.1500000000001</v>
+        <v>86998.35</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19572,7 +19605,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="9"/>
-        <v>1120.2</v>
+        <v>86571.45</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19624,7 +19657,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="9"/>
-        <v>2875.7903225806454</v>
+        <v>242343.43548387097</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19676,7 +19709,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="9"/>
-        <v>818.55</v>
+        <v>63788.1</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19728,7 +19761,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="9"/>
-        <v>3487.8387096774195</v>
+        <v>295635.72580645164</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19780,7 +19813,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="9"/>
-        <v>921</v>
+        <v>69683.25</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19832,7 +19865,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="9"/>
-        <v>1477.35</v>
+        <v>124138.35</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19884,7 +19917,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="9"/>
-        <v>2520.6774193548385</v>
+        <v>214244.17741935485</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19936,7 +19969,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="9"/>
-        <v>1228.05</v>
+        <v>103044</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19988,7 +20021,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="9"/>
-        <v>893.4</v>
+        <v>71619.600000000006</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20040,7 +20073,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="9"/>
-        <v>1291.8</v>
+        <v>100478.85</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20092,7 +20125,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="9"/>
-        <v>1252.8</v>
+        <v>95970.3</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20144,7 +20177,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="9"/>
-        <v>1102.95</v>
+        <v>86375.4</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20196,7 +20229,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="9"/>
-        <v>999.45</v>
+        <v>82898.399999999994</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20248,7 +20281,7 @@
       </c>
       <c r="N83">
         <f t="shared" si="9"/>
-        <v>1272.45</v>
+        <v>104551.5</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20300,7 +20333,7 @@
       </c>
       <c r="N84">
         <f t="shared" si="9"/>
-        <v>1472.85</v>
+        <v>126048.3</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20352,7 +20385,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="9"/>
-        <v>1303.8</v>
+        <v>111455.25</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20404,7 +20437,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="9"/>
-        <v>1867.5</v>
+        <v>169606.18421052632</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20456,7 +20489,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="9"/>
-        <v>1707.078947368421</v>
+        <v>150807.23684210525</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20508,7 +20541,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="9"/>
-        <v>1604.5263157894738</v>
+        <v>141804.71052631579</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20560,7 +20593,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="9"/>
-        <v>1688.3684210526317</v>
+        <v>152745.63157894736</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20612,7 +20645,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="9"/>
-        <v>1424.8421052631579</v>
+        <v>128998.34210526316</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20664,7 +20697,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="9"/>
-        <v>1439.8333333333333</v>
+        <v>133199.33333333334</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20716,7 +20749,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="9"/>
-        <v>1024.2631578947369</v>
+        <v>94696.34210526316</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20768,7 +20801,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="9"/>
-        <v>1570.35</v>
+        <v>145370.54999999999</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20820,7 +20853,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="9"/>
-        <v>1357.5</v>
+        <v>124966.10526315789</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20872,7 +20905,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="9"/>
-        <v>1370.1315789473683</v>
+        <v>124759.57894736843</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20924,7 +20957,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="9"/>
-        <v>1668.7894736842106</v>
+        <v>150167.44736842104</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20976,7 +21009,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="9"/>
-        <v>1576.578947368421</v>
+        <v>141696.31578947368</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21028,7 +21061,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="9"/>
-        <v>1202.5263157894738</v>
+        <v>109468.42105263157</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21080,7 +21113,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="9"/>
-        <v>1371.4411764705883</v>
+        <v>125695.14705882352</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21132,7 +21165,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="9"/>
-        <v>1392.8684210526317</v>
+        <v>124912.5</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21184,7 +21217,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="9"/>
-        <v>1238.921052631579</v>
+        <v>114226.81578947368</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21236,7 +21269,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="9"/>
-        <v>1298.8421052631579</v>
+        <v>117501</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21288,7 +21321,7 @@
       </c>
       <c r="N103">
         <f t="shared" si="9"/>
-        <v>1908.825</v>
+        <v>169268.625</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21340,7 +21373,7 @@
       </c>
       <c r="N104">
         <f t="shared" si="9"/>
-        <v>1530.15</v>
+        <v>143286.375</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21392,7 +21425,7 @@
       </c>
       <c r="N105">
         <f t="shared" si="9"/>
-        <v>1274.2894736842106</v>
+        <v>119350.73684210527</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21444,7 +21477,7 @@
       </c>
       <c r="N106">
         <f t="shared" si="9"/>
-        <v>1652.6052631578948</v>
+        <v>150647.28947368421</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21496,7 +21529,7 @@
       </c>
       <c r="N107">
         <f t="shared" si="9"/>
-        <v>1331.2894736842106</v>
+        <v>119550.23684210527</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21548,7 +21581,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="9"/>
-        <v>1340.4473684210527</v>
+        <v>123719.60526315789</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21600,7 +21633,7 @@
       </c>
       <c r="N109">
         <f t="shared" si="9"/>
-        <v>1592.7</v>
+        <v>145776.67499999999</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21652,7 +21685,7 @@
       </c>
       <c r="N110">
         <f t="shared" si="9"/>
-        <v>1617.9749999999999</v>
+        <v>149599.95000000001</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21704,7 +21737,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="9"/>
-        <v>1993.35</v>
+        <v>182708.32500000001</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21756,7 +21789,7 @@
       </c>
       <c r="N112">
         <f t="shared" si="9"/>
-        <v>1598.7</v>
+        <v>150210.67499999999</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21808,7 +21841,7 @@
       </c>
       <c r="N113">
         <f t="shared" si="9"/>
-        <v>2491.5697674418607</v>
+        <v>249890.41860465117</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21860,7 +21893,7 @@
       </c>
       <c r="N114">
         <f t="shared" si="9"/>
-        <v>2143.9418604651164</v>
+        <v>210028.09302325582</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21912,7 +21945,7 @@
       </c>
       <c r="N115">
         <f t="shared" si="9"/>
-        <v>2085.5</v>
+        <v>206666.12790697673</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21964,7 +21997,7 @@
       </c>
       <c r="N116">
         <f t="shared" si="9"/>
-        <v>2216.8372093023254</v>
+        <v>230761.23255813954</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22016,7 +22049,7 @@
       </c>
       <c r="N117">
         <f t="shared" si="9"/>
-        <v>2201.1046511627906</v>
+        <v>227580.93023255814</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22068,7 +22101,7 @@
       </c>
       <c r="N118">
         <f t="shared" si="9"/>
-        <v>2328.5859375</v>
+        <v>241166.30859375</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22120,7 +22153,7 @@
       </c>
       <c r="N119">
         <f t="shared" si="9"/>
-        <v>1805.453488372093</v>
+        <v>188697.8023255814</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22172,7 +22205,7 @@
       </c>
       <c r="N120">
         <f t="shared" si="9"/>
-        <v>2147.0232558139537</v>
+        <v>216066.80541744188</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22224,7 +22257,7 @@
       </c>
       <c r="N121">
         <f t="shared" si="9"/>
-        <v>2295.7325581395348</v>
+        <v>240723.38372093023</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22276,7 +22309,7 @@
       </c>
       <c r="N122">
         <f t="shared" si="9"/>
-        <v>2184.4651162790697</v>
+        <v>225135.81395348837</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22328,7 +22361,7 @@
       </c>
       <c r="N123">
         <f t="shared" si="9"/>
-        <v>2239.8139534883721</v>
+        <v>215913.95348837209</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22380,7 +22413,7 @@
       </c>
       <c r="N124">
         <f t="shared" si="9"/>
-        <v>2326.7558139534885</v>
+        <v>227664.8962593023</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22432,7 +22465,7 @@
       </c>
       <c r="N125">
         <f t="shared" si="9"/>
-        <v>2036.6976744186047</v>
+        <v>211460.78406976743</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22484,7 +22517,7 @@
       </c>
       <c r="N126">
         <f t="shared" si="9"/>
-        <v>2234.390625</v>
+        <v>227804.94140625</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22536,7 +22569,7 @@
       </c>
       <c r="N127">
         <f t="shared" si="9"/>
-        <v>2003.5581395348838</v>
+        <v>205174.05813953487</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22588,7 +22621,7 @@
       </c>
       <c r="N128">
         <f t="shared" si="9"/>
-        <v>2124.6744186046512</v>
+        <v>220364.34883720931</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22640,7 +22673,7 @@
       </c>
       <c r="N129">
         <f t="shared" si="9"/>
-        <v>2151.2558139534885</v>
+        <v>223029.53570232558</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22692,7 +22725,7 @@
       </c>
       <c r="N130">
         <f t="shared" si="9"/>
-        <v>2767.3023255813955</v>
+        <v>272123.46288023255</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22743,8 +22776,8 @@
         <v>27.631983651129577</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N194" si="14" xml:space="preserve"> C131/G131</f>
-        <v>2069.6395348837209</v>
+        <f t="shared" ref="N131:N194" si="14" xml:space="preserve"> D131/G131</f>
+        <v>210588.47674418605</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22796,7 +22829,7 @@
       </c>
       <c r="N132">
         <f t="shared" si="14"/>
-        <v>2411.8720930232557</v>
+        <v>251309.13953488372</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22848,7 +22881,7 @@
       </c>
       <c r="N133">
         <f t="shared" si="14"/>
-        <v>2226.4069767441861</v>
+        <v>228962.6054732558</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22900,7 +22933,7 @@
       </c>
       <c r="N134">
         <f t="shared" si="14"/>
-        <v>2868.9302325581393</v>
+        <v>295283.38372093026</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22952,7 +22985,7 @@
       </c>
       <c r="N135">
         <f t="shared" si="14"/>
-        <v>1921.0348837209303</v>
+        <v>196319.93023255814</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23004,7 +23037,7 @@
       </c>
       <c r="N136">
         <f t="shared" si="14"/>
-        <v>2230.546511627907</v>
+        <v>218515.76744186046</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23056,7 +23089,7 @@
       </c>
       <c r="N137">
         <f t="shared" si="14"/>
-        <v>3270.48</v>
+        <v>338589.04800000001</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23108,7 +23141,7 @@
       </c>
       <c r="N138">
         <f t="shared" si="14"/>
-        <v>2900.2919999999999</v>
+        <v>296185.94400000002</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23160,7 +23193,7 @@
       </c>
       <c r="N139">
         <f t="shared" si="14"/>
-        <v>2856.576</v>
+        <v>294676.53600000002</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23212,7 +23245,7 @@
       </c>
       <c r="N140">
         <f t="shared" si="14"/>
-        <v>2873.712</v>
+        <v>309547.41600000003</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23264,7 +23297,7 @@
       </c>
       <c r="N141">
         <f t="shared" si="14"/>
-        <v>2882.04</v>
+        <v>307255.63199999998</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23316,7 +23349,7 @@
       </c>
       <c r="N142">
         <f t="shared" si="14"/>
-        <v>3097.7640000000001</v>
+        <v>332475.07199999999</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23368,7 +23401,7 @@
       </c>
       <c r="N143">
         <f t="shared" si="14"/>
-        <v>2372.64</v>
+        <v>254749.89600000001</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23420,7 +23453,7 @@
       </c>
       <c r="N144">
         <f t="shared" si="14"/>
-        <v>2982.75</v>
+        <v>309402.90725806454</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23472,7 +23505,7 @@
       </c>
       <c r="N145">
         <f t="shared" si="14"/>
-        <v>2980.0320000000002</v>
+        <v>320617.54800000001</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23524,7 +23557,7 @@
       </c>
       <c r="N146">
         <f t="shared" si="14"/>
-        <v>2987.136</v>
+        <v>316628.61599999998</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23576,7 +23609,7 @@
       </c>
       <c r="N147">
         <f t="shared" si="14"/>
-        <v>3024.348</v>
+        <v>303217.25255999999</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23628,7 +23661,7 @@
       </c>
       <c r="N148">
         <f t="shared" si="14"/>
-        <v>3109.3440000000001</v>
+        <v>317114.47200000001</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23680,7 +23713,7 @@
       </c>
       <c r="N149">
         <f t="shared" si="14"/>
-        <v>2670.3359999999998</v>
+        <v>285373.87199999997</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23732,7 +23765,7 @@
       </c>
       <c r="N150">
         <f t="shared" si="14"/>
-        <v>3008.4839999999999</v>
+        <v>319344.228</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23784,7 +23817,7 @@
       </c>
       <c r="N151">
         <f t="shared" si="14"/>
-        <v>2800.5479999999998</v>
+        <v>297576.924</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23836,7 +23869,7 @@
       </c>
       <c r="N152">
         <f t="shared" si="14"/>
-        <v>2281.6860465116279</v>
+        <v>227347.02325581395</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23888,7 +23921,7 @@
       </c>
       <c r="N153">
         <f t="shared" si="14"/>
-        <v>2741.328</v>
+        <v>293055.99599999998</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23940,7 +23973,7 @@
       </c>
       <c r="N154">
         <f t="shared" si="14"/>
-        <v>2828.546511627907</v>
+        <v>276934.0581395349</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23992,7 +24025,7 @@
       </c>
       <c r="N155">
         <f t="shared" si="14"/>
-        <v>2842.2240000000002</v>
+        <v>304738.75199999998</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24044,7 +24077,7 @@
       </c>
       <c r="N156">
         <f t="shared" si="14"/>
-        <v>3655.08</v>
+        <v>371264.64</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24096,7 +24129,7 @@
       </c>
       <c r="N157">
         <f t="shared" si="14"/>
-        <v>2158.8488372093025</v>
+        <v>218224.84302325582</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24148,7 +24181,7 @@
       </c>
       <c r="N158">
         <f t="shared" si="14"/>
-        <v>2820.4354838709678</v>
+        <v>297447</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24200,7 +24233,7 @@
       </c>
       <c r="N159">
         <f t="shared" si="14"/>
-        <v>3212.64</v>
+        <v>344229.87599999999</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24252,7 +24285,7 @@
       </c>
       <c r="N160">
         <f t="shared" si="14"/>
-        <v>2949.192</v>
+        <v>312087</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24304,7 +24337,7 @@
       </c>
       <c r="N161">
         <f t="shared" si="14"/>
-        <v>3708.24</v>
+        <v>392985.44400000002</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24356,7 +24389,7 @@
       </c>
       <c r="N162">
         <f t="shared" si="14"/>
-        <v>2552.88</v>
+        <v>270111.91200000001</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24408,7 +24441,7 @@
       </c>
       <c r="N163">
         <f t="shared" si="14"/>
-        <v>3005.9520000000002</v>
+        <v>305531.05200000003</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24460,7 +24493,7 @@
       </c>
       <c r="N164">
         <f t="shared" si="14"/>
-        <v>2259.2083333333335</v>
+        <v>184782.75</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24512,7 +24545,7 @@
       </c>
       <c r="N165">
         <f t="shared" si="14"/>
-        <v>2105.4583333333335</v>
+        <v>171485.08333333334</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24564,7 +24597,7 @@
       </c>
       <c r="N166">
         <f t="shared" si="14"/>
-        <v>2023.9166666666667</v>
+        <v>165355.625</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24616,7 +24649,7 @@
       </c>
       <c r="N167">
         <f t="shared" si="14"/>
-        <v>2315.9166666666665</v>
+        <v>201484.08333333334</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24668,7 +24701,7 @@
       </c>
       <c r="N168">
         <f t="shared" si="14"/>
-        <v>1780.7916666666667</v>
+        <v>154484.79166666666</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24720,7 +24753,7 @@
       </c>
       <c r="N169">
         <f t="shared" si="14"/>
-        <v>2075.2083333333335</v>
+        <v>179290.5</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24772,7 +24805,7 @@
       </c>
       <c r="N170">
         <f t="shared" si="14"/>
-        <v>1283.7916666666667</v>
+        <v>114395.875</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24824,7 +24857,7 @@
       </c>
       <c r="N171">
         <f t="shared" si="14"/>
-        <v>1881.2916666666667</v>
+        <v>162916.375</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24876,7 +24909,7 @@
       </c>
       <c r="N172">
         <f t="shared" si="14"/>
-        <v>2284.125</v>
+        <v>195339.58333333334</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24928,7 +24961,7 @@
       </c>
       <c r="N173">
         <f t="shared" si="14"/>
-        <v>1788.625</v>
+        <v>153420.70833333334</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24980,7 +25013,7 @@
       </c>
       <c r="N174">
         <f t="shared" si="14"/>
-        <v>2031.2916666666667</v>
+        <v>162891.25</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25032,7 +25065,7 @@
       </c>
       <c r="N175">
         <f t="shared" si="14"/>
-        <v>2767.5416666666665</v>
+        <v>197831.83333333334</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25084,7 +25117,7 @@
       </c>
       <c r="N176">
         <f t="shared" si="14"/>
-        <v>1844.3333333333333</v>
+        <v>160292.75</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25136,7 +25169,7 @@
       </c>
       <c r="N177">
         <f t="shared" si="14"/>
-        <v>2031.875</v>
+        <v>174673.5</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25188,7 +25221,7 @@
       </c>
       <c r="N178">
         <f t="shared" si="14"/>
-        <v>2029.5</v>
+        <v>175939.66666666666</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25240,7 +25273,7 @@
       </c>
       <c r="N179">
         <f t="shared" si="14"/>
-        <v>3061.8024193548385</v>
+        <v>317582.08064516127</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25292,7 +25325,7 @@
       </c>
       <c r="N180">
         <f t="shared" si="14"/>
-        <v>1960.5833333333333</v>
+        <v>172814.45833333334</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25344,7 +25377,7 @@
       </c>
       <c r="N181">
         <f t="shared" si="14"/>
-        <v>3654.2177419354839</v>
+        <v>373958.90322580643</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25396,7 +25429,7 @@
       </c>
       <c r="N182">
         <f t="shared" si="14"/>
-        <v>1750.3333333333333</v>
+        <v>151503.375</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25448,7 +25481,7 @@
       </c>
       <c r="N183">
         <f t="shared" si="14"/>
-        <v>2487.6666666666665</v>
+        <v>199253.25</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25500,7 +25533,7 @@
       </c>
       <c r="N184">
         <f t="shared" si="14"/>
-        <v>2940.6290322580644</v>
+        <v>306029.74596774194</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25552,7 +25585,7 @@
       </c>
       <c r="N185">
         <f t="shared" si="14"/>
-        <v>1842.125</v>
+        <v>158462.5</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25604,7 +25637,7 @@
       </c>
       <c r="N186">
         <f t="shared" si="14"/>
-        <v>2173.2083333333335</v>
+        <v>189433.16666666666</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25656,7 +25689,7 @@
       </c>
       <c r="N187">
         <f t="shared" si="14"/>
-        <v>2453.0833333333335</v>
+        <v>214613.04166666666</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25708,7 +25741,7 @@
       </c>
       <c r="N188">
         <f t="shared" si="14"/>
-        <v>1716.7916666666667</v>
+        <v>149047.45833333334</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25760,7 +25793,7 @@
       </c>
       <c r="N189">
         <f t="shared" si="14"/>
-        <v>1974.0833333333333</v>
+        <v>171551.04166666666</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25812,7 +25845,7 @@
       </c>
       <c r="N190">
         <f t="shared" si="14"/>
-        <v>2073.5833333333335</v>
+        <v>169395.45833333334</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25864,7 +25897,7 @@
       </c>
       <c r="N191">
         <f t="shared" si="14"/>
-        <v>2121.9285714285716</v>
+        <v>191673.71428571429</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25916,7 +25949,7 @@
       </c>
       <c r="N192">
         <f t="shared" si="14"/>
-        <v>1821.4285714285713</v>
+        <v>169187.5</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25968,7 +26001,7 @@
       </c>
       <c r="N193">
         <f t="shared" si="14"/>
-        <v>1658.5714285714287</v>
+        <v>151959.78571428571</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26020,7 +26053,7 @@
       </c>
       <c r="N194">
         <f t="shared" si="14"/>
-        <v>1535.2142857142858</v>
+        <v>146899.64285714287</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26071,8 +26104,8 @@
         <v>23.013129497328372</v>
       </c>
       <c r="N195">
-        <f t="shared" ref="N195:N258" si="19" xml:space="preserve"> C195/G195</f>
-        <v>1539</v>
+        <f t="shared" ref="N195:N258" si="19" xml:space="preserve"> D195/G195</f>
+        <v>140892.67499999999</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26124,7 +26157,7 @@
       </c>
       <c r="N196">
         <f t="shared" si="19"/>
-        <v>1533.7894736842106</v>
+        <v>138294.47368421053</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26176,7 +26209,7 @@
       </c>
       <c r="N197">
         <f t="shared" si="19"/>
-        <v>1321.425</v>
+        <v>123523.27499999999</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26228,7 +26261,7 @@
       </c>
       <c r="N198">
         <f t="shared" si="19"/>
-        <v>1940.2142857142858</v>
+        <v>176205.28571428571</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26280,7 +26313,7 @@
       </c>
       <c r="N199">
         <f t="shared" si="19"/>
-        <v>2331</v>
+        <v>214662.07500000001</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26332,7 +26365,7 @@
       </c>
       <c r="N200">
         <f t="shared" si="19"/>
-        <v>1543.7857142857142</v>
+        <v>146695.92857142858</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26384,7 +26417,7 @@
       </c>
       <c r="N201">
         <f t="shared" si="19"/>
-        <v>1943.7857142857142</v>
+        <v>181447.35714285713</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26436,7 +26469,7 @@
       </c>
       <c r="N202">
         <f t="shared" si="19"/>
-        <v>1971</v>
+        <v>186618.42857142858</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26488,7 +26521,7 @@
       </c>
       <c r="N203">
         <f t="shared" si="19"/>
-        <v>1474.125</v>
+        <v>132434.4</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26540,7 +26573,7 @@
       </c>
       <c r="N204">
         <f t="shared" si="19"/>
-        <v>1693.7368421052631</v>
+        <v>150715.81578947368</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26592,7 +26625,7 @@
       </c>
       <c r="N205">
         <f t="shared" si="19"/>
-        <v>1692.1428571428571</v>
+        <v>156574.71428571429</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26644,7 +26677,7 @@
       </c>
       <c r="N206">
         <f t="shared" si="19"/>
-        <v>2060.3918918918921</v>
+        <v>175698.60810810811</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26696,7 +26729,7 @@
       </c>
       <c r="N207">
         <f t="shared" si="19"/>
-        <v>1496.7750000000001</v>
+        <v>136000.125</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26748,7 +26781,7 @@
       </c>
       <c r="N208">
         <f t="shared" si="19"/>
-        <v>2889.8918918918921</v>
+        <v>245902.33783783784</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26800,7 +26833,7 @@
       </c>
       <c r="N209">
         <f t="shared" si="19"/>
-        <v>1517.1</v>
+        <v>136906.35</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26852,7 +26885,7 @@
       </c>
       <c r="N210">
         <f t="shared" si="19"/>
-        <v>2047.5714285714287</v>
+        <v>184915</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26904,7 +26937,7 @@
       </c>
       <c r="N211">
         <f t="shared" si="19"/>
-        <v>1890.4054054054054</v>
+        <v>164917.05405405405</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26956,7 +26989,7 @@
       </c>
       <c r="N212">
         <f t="shared" si="19"/>
-        <v>1844.7857142857142</v>
+        <v>169602.64285714287</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27008,7 +27041,7 @@
       </c>
       <c r="N213">
         <f t="shared" si="19"/>
-        <v>1561.575</v>
+        <v>142665.52499999999</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27060,7 +27093,7 @@
       </c>
       <c r="N214">
         <f t="shared" si="19"/>
-        <v>1785.2142857142858</v>
+        <v>169004.64285714287</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27112,7 +27145,7 @@
       </c>
       <c r="N215">
         <f t="shared" si="19"/>
-        <v>1638.0714285714287</v>
+        <v>152445.64285714287</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27164,7 +27197,7 @@
       </c>
       <c r="N216">
         <f t="shared" si="19"/>
-        <v>1564.3571428571429</v>
+        <v>139738.28571428571</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27216,7 +27249,7 @@
       </c>
       <c r="N217">
         <f t="shared" si="19"/>
-        <v>1818.7857142857142</v>
+        <v>164252.5</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27268,7 +27301,7 @@
       </c>
       <c r="N218">
         <f t="shared" si="19"/>
-        <v>1844.4782608695652</v>
+        <v>173658.84782608695</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27320,7 +27353,7 @@
       </c>
       <c r="N219">
         <f t="shared" si="19"/>
-        <v>2194.840909090909</v>
+        <v>202565.52272727274</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27372,7 +27405,7 @@
       </c>
       <c r="N220">
         <f t="shared" si="19"/>
-        <v>1883.7272727272727</v>
+        <v>176985.47727272726</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27424,7 +27457,7 @@
       </c>
       <c r="N221">
         <f t="shared" si="19"/>
-        <v>1240</v>
+        <v>106761.7</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27476,7 +27509,7 @@
       </c>
       <c r="N222">
         <f t="shared" si="19"/>
-        <v>1039.875</v>
+        <v>85302.9375</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27528,7 +27561,7 @@
       </c>
       <c r="N223">
         <f t="shared" si="19"/>
-        <v>1040.5999999999999</v>
+        <v>91838.5</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27580,7 +27613,7 @@
       </c>
       <c r="N224">
         <f t="shared" si="19"/>
-        <v>929.9</v>
+        <v>81528.800000000003</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27632,7 +27665,7 @@
       </c>
       <c r="N225">
         <f t="shared" si="19"/>
-        <v>820.1</v>
+        <v>72347.399999999994</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27684,7 +27717,7 @@
       </c>
       <c r="N226">
         <f t="shared" si="19"/>
-        <v>867.6</v>
+        <v>74399.5</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27736,7 +27769,7 @@
       </c>
       <c r="N227">
         <f t="shared" si="19"/>
-        <v>820.9</v>
+        <v>70214.7</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27788,7 +27821,7 @@
       </c>
       <c r="N228">
         <f t="shared" si="19"/>
-        <v>1023</v>
+        <v>87596.029411764699</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27840,7 +27873,7 @@
       </c>
       <c r="N229">
         <f t="shared" si="19"/>
-        <v>1140.9000000000001</v>
+        <v>97722.8</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27892,7 +27925,7 @@
       </c>
       <c r="N230">
         <f t="shared" si="19"/>
-        <v>853.5</v>
+        <v>74922</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27944,7 +27977,7 @@
       </c>
       <c r="N231">
         <f t="shared" si="19"/>
-        <v>973.76470588235293</v>
+        <v>81220.676470588238</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27996,7 +28029,7 @@
       </c>
       <c r="N232">
         <f t="shared" si="19"/>
-        <v>1083.09375</v>
+        <v>89390.90625</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28048,7 +28081,7 @@
       </c>
       <c r="N233">
         <f t="shared" si="19"/>
-        <v>1065.8</v>
+        <v>92278.6</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28100,7 +28133,7 @@
       </c>
       <c r="N234">
         <f t="shared" si="19"/>
-        <v>886.9</v>
+        <v>73525.8</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28152,7 +28185,7 @@
       </c>
       <c r="N235">
         <f t="shared" si="19"/>
-        <v>953.7</v>
+        <v>82900.5</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28204,7 +28237,7 @@
       </c>
       <c r="N236">
         <f t="shared" si="19"/>
-        <v>861.6</v>
+        <v>74667.3</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28256,7 +28289,7 @@
       </c>
       <c r="N237">
         <f t="shared" si="19"/>
-        <v>937.4</v>
+        <v>81403.8</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28308,7 +28341,7 @@
       </c>
       <c r="N238">
         <f t="shared" si="19"/>
-        <v>1291.6764705882354</v>
+        <v>109058.91176470589</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28360,7 +28393,7 @@
       </c>
       <c r="N239">
         <f t="shared" si="19"/>
-        <v>1012.4117647058823</v>
+        <v>88698.088235294112</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28412,7 +28445,7 @@
       </c>
       <c r="N240">
         <f t="shared" si="19"/>
-        <v>850.2</v>
+        <v>73537.899999999994</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28464,7 +28497,7 @@
       </c>
       <c r="N241">
         <f t="shared" si="19"/>
-        <v>1095.7</v>
+        <v>98102.5</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28516,7 +28549,7 @@
       </c>
       <c r="N242">
         <f t="shared" si="19"/>
-        <v>966.3</v>
+        <v>84652.4</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28568,7 +28601,7 @@
       </c>
       <c r="N243">
         <f t="shared" si="19"/>
-        <v>847</v>
+        <v>74926.3</v>
       </c>
     </row>
     <row r="244" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28620,7 +28653,7 @@
       </c>
       <c r="N244">
         <f t="shared" si="19"/>
-        <v>1063.2352941176471</v>
+        <v>91064.647058823524</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28672,7 +28705,7 @@
       </c>
       <c r="N245">
         <f t="shared" si="19"/>
-        <v>874.7</v>
+        <v>81002.2</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28724,7 +28757,7 @@
       </c>
       <c r="N246">
         <f t="shared" si="19"/>
-        <v>1082.5</v>
+        <v>93536.5</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28776,7 +28809,7 @@
       </c>
       <c r="N247">
         <f t="shared" si="19"/>
-        <v>797.8</v>
+        <v>70699.3</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28828,7 +28861,7 @@
       </c>
       <c r="N248">
         <f t="shared" si="19"/>
-        <v>802.5</v>
+        <v>72081.100000000006</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28880,7 +28913,7 @@
       </c>
       <c r="N249">
         <f t="shared" si="19"/>
-        <v>472.5</v>
+        <v>40723.699999999997</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28932,7 +28965,7 @@
       </c>
       <c r="N250">
         <f t="shared" si="19"/>
-        <v>1434.25</v>
+        <v>131161.91666666666</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -28984,7 +29017,7 @@
       </c>
       <c r="N251">
         <f t="shared" si="19"/>
-        <v>308.3</v>
+        <v>28882.9</v>
       </c>
     </row>
     <row r="252" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29036,7 +29069,7 @@
       </c>
       <c r="N252">
         <f t="shared" si="19"/>
-        <v>817.3</v>
+        <v>76803.600000000006</v>
       </c>
     </row>
     <row r="253" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29088,7 +29121,7 @@
       </c>
       <c r="N253">
         <f t="shared" si="19"/>
-        <v>363.1</v>
+        <v>33704.800000000003</v>
       </c>
     </row>
     <row r="254" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29140,7 +29173,7 @@
       </c>
       <c r="N254">
         <f t="shared" si="19"/>
-        <v>753.1</v>
+        <v>65975.5</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29192,7 +29225,7 @@
       </c>
       <c r="N255">
         <f t="shared" si="19"/>
-        <v>809</v>
+        <v>73574.899999999994</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29244,7 +29277,7 @@
       </c>
       <c r="N256">
         <f t="shared" si="19"/>
-        <v>842</v>
+        <v>73657.2</v>
       </c>
     </row>
     <row r="257" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29296,7 +29329,7 @@
       </c>
       <c r="N257">
         <f t="shared" si="19"/>
-        <v>548.20000000000005</v>
+        <v>46306.2</v>
       </c>
     </row>
     <row r="258" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29348,7 +29381,7 @@
       </c>
       <c r="N258">
         <f t="shared" si="19"/>
-        <v>1397.1666666666667</v>
+        <v>126504</v>
       </c>
     </row>
     <row r="259" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29399,8 +29432,8 @@
         <v>17.259611911623441</v>
       </c>
       <c r="N259">
-        <f t="shared" ref="N259:N322" si="24" xml:space="preserve"> C259/G259</f>
-        <v>693.4</v>
+        <f t="shared" ref="N259:N322" si="24" xml:space="preserve"> D259/G259</f>
+        <v>63327.5</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29452,7 +29485,7 @@
       </c>
       <c r="N260">
         <f t="shared" si="24"/>
-        <v>1040.5588235294117</v>
+        <v>93654.088235294112</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29504,7 +29537,7 @@
       </c>
       <c r="N261">
         <f t="shared" si="24"/>
-        <v>541.79999999999995</v>
+        <v>44353.5</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29556,7 +29589,7 @@
       </c>
       <c r="N262">
         <f t="shared" si="24"/>
-        <v>1602.9705882352941</v>
+        <v>144544.23529411765</v>
       </c>
     </row>
     <row r="263" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29608,7 +29641,7 @@
       </c>
       <c r="N263">
         <f t="shared" si="24"/>
-        <v>564.29999999999995</v>
+        <v>49286.1</v>
       </c>
     </row>
     <row r="264" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29660,7 +29693,7 @@
       </c>
       <c r="N264">
         <f t="shared" si="24"/>
-        <v>944.5</v>
+        <v>87671.7</v>
       </c>
     </row>
     <row r="265" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29712,7 +29745,7 @@
       </c>
       <c r="N265">
         <f t="shared" si="24"/>
-        <v>970.58823529411768</v>
+        <v>87525.176470588238</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29764,7 +29797,7 @@
       </c>
       <c r="N266">
         <f t="shared" si="24"/>
-        <v>884</v>
+        <v>82045.8</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29816,7 +29849,7 @@
       </c>
       <c r="N267">
         <f t="shared" si="24"/>
-        <v>285.7</v>
+        <v>26979.4</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29868,7 +29901,7 @@
       </c>
       <c r="N268">
         <f t="shared" si="24"/>
-        <v>896</v>
+        <v>79885.7</v>
       </c>
     </row>
     <row r="269" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29920,7 +29953,7 @@
       </c>
       <c r="N269">
         <f t="shared" si="24"/>
-        <v>603.9</v>
+        <v>53250.6</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29972,7 +30005,7 @@
       </c>
       <c r="N270">
         <f t="shared" si="24"/>
-        <v>581.29999999999995</v>
+        <v>51285.1</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30024,7 +30057,7 @@
       </c>
       <c r="N271">
         <f t="shared" si="24"/>
-        <v>844.4</v>
+        <v>78991</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30076,7 +30109,7 @@
       </c>
       <c r="N272">
         <f t="shared" si="24"/>
-        <v>1819.1052631578948</v>
+        <v>153835.97368421053</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30128,7 +30161,7 @@
       </c>
       <c r="N273">
         <f t="shared" si="24"/>
-        <v>1520.1315789473683</v>
+        <v>128764.73684210527</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30180,7 +30213,7 @@
       </c>
       <c r="N274">
         <f t="shared" si="24"/>
-        <v>1488.1578947368421</v>
+        <v>128191.18421052632</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30232,7 +30265,7 @@
       </c>
       <c r="N275">
         <f t="shared" si="24"/>
-        <v>1382.6842105263158</v>
+        <v>125523</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30284,7 +30317,7 @@
       </c>
       <c r="N276">
         <f t="shared" si="24"/>
-        <v>1241.4473684210527</v>
+        <v>113456.21052631579</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30336,7 +30369,7 @@
       </c>
       <c r="N277">
         <f t="shared" si="24"/>
-        <v>969.86842105263156</v>
+        <v>88571.131578947374</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30388,7 +30421,7 @@
       </c>
       <c r="N278">
         <f t="shared" si="24"/>
-        <v>1357.8</v>
+        <v>120540.15</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30440,7 +30473,7 @@
       </c>
       <c r="N279">
         <f t="shared" si="24"/>
-        <v>1852.1052631578948</v>
+        <v>166763.68421052632</v>
       </c>
     </row>
     <row r="280" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30492,7 +30525,7 @@
       </c>
       <c r="N280">
         <f t="shared" si="24"/>
-        <v>1341.2368421052631</v>
+        <v>118061.05263157895</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30544,7 +30577,7 @@
       </c>
       <c r="N281">
         <f t="shared" si="24"/>
-        <v>1334.8421052631579</v>
+        <v>115733.44736842105</v>
       </c>
     </row>
     <row r="282" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30596,7 +30629,7 @@
       </c>
       <c r="N282">
         <f t="shared" si="24"/>
-        <v>1518.3947368421052</v>
+        <v>132671.52631578947</v>
       </c>
     </row>
     <row r="283" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30648,7 +30681,7 @@
       </c>
       <c r="N283">
         <f t="shared" si="24"/>
-        <v>1387.7368421052631</v>
+        <v>125280.71052631579</v>
       </c>
     </row>
     <row r="284" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30700,7 +30733,7 @@
       </c>
       <c r="N284">
         <f t="shared" si="24"/>
-        <v>1344.1578947368421</v>
+        <v>119139.55263157895</v>
       </c>
     </row>
     <row r="285" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30752,7 +30785,7 @@
       </c>
       <c r="N285">
         <f t="shared" si="24"/>
-        <v>925.5</v>
+        <v>83549.34375</v>
       </c>
     </row>
     <row r="286" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30804,7 +30837,7 @@
       </c>
       <c r="N286">
         <f t="shared" si="24"/>
-        <v>1123.3421052631579</v>
+        <v>100345.10526315789</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30856,7 +30889,7 @@
       </c>
       <c r="N287">
         <f t="shared" si="24"/>
-        <v>1121.625</v>
+        <v>100568.15625</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30908,7 +30941,7 @@
       </c>
       <c r="N288">
         <f t="shared" si="24"/>
-        <v>1280.921052631579</v>
+        <v>113650.02631578948</v>
       </c>
     </row>
     <row r="289" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30960,7 +30993,7 @@
       </c>
       <c r="N289">
         <f t="shared" si="24"/>
-        <v>1947.2368421052631</v>
+        <v>162586.34210526315</v>
       </c>
     </row>
     <row r="290" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31012,7 +31045,7 @@
       </c>
       <c r="N290">
         <f t="shared" si="24"/>
-        <v>866.53125</v>
+        <v>77484.1875</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31064,7 +31097,7 @@
       </c>
       <c r="N291">
         <f t="shared" si="24"/>
-        <v>1424.7</v>
+        <v>125640.15</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31116,7 +31149,7 @@
       </c>
       <c r="N292">
         <f t="shared" si="24"/>
-        <v>1467.5526315789473</v>
+        <v>134741.05263157896</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31168,7 +31201,7 @@
       </c>
       <c r="N293">
         <f t="shared" si="24"/>
-        <v>1643.3684210526317</v>
+        <v>145645.81578947368</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31220,7 +31253,7 @@
       </c>
       <c r="N294">
         <f t="shared" si="24"/>
-        <v>1316.8421052631579</v>
+        <v>117682.10526315789</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31272,7 +31305,7 @@
       </c>
       <c r="N295">
         <f t="shared" si="24"/>
-        <v>1378.1052631578948</v>
+        <v>121491.39473684211</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31324,7 +31357,7 @@
       </c>
       <c r="N296">
         <f t="shared" si="24"/>
-        <v>1569.7105263157894</v>
+        <v>132995.21052631579</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31376,7 +31409,7 @@
       </c>
       <c r="N297">
         <f t="shared" si="24"/>
-        <v>3531.3813559322034</v>
+        <v>366361.57627118647</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31428,7 +31461,7 @@
       </c>
       <c r="N298">
         <f t="shared" si="24"/>
-        <v>3468.4322033898306</v>
+        <v>357879.63559322036</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31480,7 +31513,7 @@
       </c>
       <c r="N299">
         <f t="shared" si="24"/>
-        <v>1493.9285714285713</v>
+        <v>133063.07142857142</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31532,7 +31565,7 @@
       </c>
       <c r="N300">
         <f t="shared" si="24"/>
-        <v>1734.075</v>
+        <v>150266.70000000001</v>
       </c>
     </row>
     <row r="301" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31584,7 +31617,7 @@
       </c>
       <c r="N301">
         <f t="shared" si="24"/>
-        <v>1409.85</v>
+        <v>127960.575</v>
       </c>
     </row>
     <row r="302" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31636,7 +31669,7 @@
       </c>
       <c r="N302">
         <f t="shared" si="24"/>
-        <v>3942.5250000000001</v>
+        <v>394823.05</v>
       </c>
     </row>
     <row r="303" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31688,7 +31721,7 @@
       </c>
       <c r="N303">
         <f t="shared" si="24"/>
-        <v>3726.625</v>
+        <v>365764.3</v>
       </c>
     </row>
     <row r="304" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31740,7 +31773,7 @@
       </c>
       <c r="N304">
         <f t="shared" si="24"/>
-        <v>3222.7249999999999</v>
+        <v>325773.09999999998</v>
       </c>
     </row>
     <row r="305" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31792,7 +31825,7 @@
       </c>
       <c r="N305">
         <f t="shared" si="24"/>
-        <v>3191.8474576271187</v>
+        <v>325739.51694915252</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31844,7 +31877,7 @@
       </c>
       <c r="N306">
         <f t="shared" si="24"/>
-        <v>4026.1779661016949</v>
+        <v>411732.50847457629</v>
       </c>
     </row>
     <row r="307" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31896,7 +31929,7 @@
       </c>
       <c r="N307">
         <f t="shared" si="24"/>
-        <v>3763.1388888888887</v>
+        <v>386507.25</v>
       </c>
     </row>
     <row r="308" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31948,7 +31981,7 @@
       </c>
       <c r="N308">
         <f t="shared" si="24"/>
-        <v>3152.1864406779659</v>
+        <v>332633.28813559323</v>
       </c>
     </row>
     <row r="309" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32000,7 +32033,7 @@
       </c>
       <c r="N309">
         <f t="shared" si="24"/>
-        <v>4150.9322033898306</v>
+        <v>426498.83898305084</v>
       </c>
     </row>
     <row r="310" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32052,7 +32085,7 @@
       </c>
       <c r="N310">
         <f t="shared" si="24"/>
-        <v>4057.7796610169494</v>
+        <v>430734.76271186443</v>
       </c>
     </row>
     <row r="311" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32104,7 +32137,7 @@
       </c>
       <c r="N311">
         <f t="shared" si="24"/>
-        <v>3214.7750000000001</v>
+        <v>320086.32500000001</v>
       </c>
     </row>
     <row r="312" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32156,7 +32189,7 @@
       </c>
       <c r="N312">
         <f t="shared" si="24"/>
-        <v>3737.2249999999999</v>
+        <v>370888.25</v>
       </c>
     </row>
     <row r="313" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32208,7 +32241,7 @@
       </c>
       <c r="N313">
         <f t="shared" si="24"/>
-        <v>3660.375</v>
+        <v>365988.1</v>
       </c>
     </row>
     <row r="314" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32260,7 +32293,7 @@
       </c>
       <c r="N314">
         <f t="shared" si="24"/>
-        <v>3620.0338983050847</v>
+        <v>371515.85593220341</v>
       </c>
     </row>
     <row r="315" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32312,7 +32345,7 @@
       </c>
       <c r="N315">
         <f t="shared" si="24"/>
-        <v>3624.1666666666665</v>
+        <v>370430.80555555556</v>
       </c>
     </row>
     <row r="316" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32364,7 +32397,7 @@
       </c>
       <c r="N316">
         <f t="shared" si="24"/>
-        <v>3228.7</v>
+        <v>323954.55</v>
       </c>
     </row>
     <row r="317" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32416,7 +32449,7 @@
       </c>
       <c r="N317">
         <f t="shared" si="24"/>
-        <v>4359.5847457627115</v>
+        <v>449021.66949152545</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32468,7 +32501,7 @@
       </c>
       <c r="N318">
         <f t="shared" si="24"/>
-        <v>3809.8220338983051</v>
+        <v>390389.69491525425</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32520,7 +32553,7 @@
       </c>
       <c r="N319">
         <f t="shared" si="24"/>
-        <v>4866.9750000000004</v>
+        <v>476515.17499999999</v>
       </c>
     </row>
     <row r="320" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32572,7 +32605,7 @@
       </c>
       <c r="N320">
         <f t="shared" si="24"/>
-        <v>3368.6694915254238</v>
+        <v>348860.05932203389</v>
       </c>
     </row>
     <row r="321" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32624,7 +32657,7 @@
       </c>
       <c r="N321">
         <f t="shared" si="24"/>
-        <v>3633.6610169491523</v>
+        <v>381864.40677966102</v>
       </c>
     </row>
     <row r="322" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32676,7 +32709,7 @@
       </c>
       <c r="N322">
         <f t="shared" si="24"/>
-        <v>4132.6271186440681</v>
+        <v>421871.26271186443</v>
       </c>
     </row>
     <row r="323" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32727,8 +32760,8 @@
         <v>26.881077546917918</v>
       </c>
       <c r="N323">
-        <f t="shared" ref="N323:N386" si="29" xml:space="preserve"> C323/G323</f>
-        <v>3944.0847457627119</v>
+        <f t="shared" ref="N323:N386" si="29" xml:space="preserve"> D323/G323</f>
+        <v>404778.78813559323</v>
       </c>
     </row>
     <row r="324" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32780,7 +32813,7 @@
       </c>
       <c r="N324">
         <f t="shared" si="29"/>
-        <v>3718.8305084745762</v>
+        <v>380680.16949152545</v>
       </c>
     </row>
     <row r="325" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32832,7 +32865,7 @@
       </c>
       <c r="N325">
         <f t="shared" si="29"/>
-        <v>3333.8249999999998</v>
+        <v>332663.34999999998</v>
       </c>
     </row>
     <row r="326" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32884,7 +32917,7 @@
       </c>
       <c r="N326">
         <f t="shared" si="29"/>
-        <v>4175.5555555555557</v>
+        <v>413987.75</v>
       </c>
     </row>
     <row r="327" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32936,7 +32969,7 @@
       </c>
       <c r="N327">
         <f t="shared" si="29"/>
-        <v>3915.8055555555557</v>
+        <v>381297.63888888888</v>
       </c>
     </row>
     <row r="328" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32988,7 +33021,7 @@
       </c>
       <c r="N328">
         <f t="shared" si="29"/>
-        <v>3422.25</v>
+        <v>341649.83333333331</v>
       </c>
     </row>
     <row r="329" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33040,7 +33073,7 @@
       </c>
       <c r="N329">
         <f t="shared" si="29"/>
-        <v>3295.8611111111113</v>
+        <v>334922.19444444444</v>
       </c>
     </row>
     <row r="330" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33092,7 +33125,7 @@
       </c>
       <c r="N330">
         <f t="shared" si="29"/>
-        <v>4141.0555555555557</v>
+        <v>422163.47222222225</v>
       </c>
     </row>
     <row r="331" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33144,7 +33177,7 @@
       </c>
       <c r="N331">
         <f t="shared" si="29"/>
-        <v>3266.6111111111113</v>
+        <v>344924.47222222225</v>
       </c>
     </row>
     <row r="332" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33196,7 +33229,7 @@
       </c>
       <c r="N332">
         <f t="shared" si="29"/>
-        <v>4303.1388888888887</v>
+        <v>441784.16666666669</v>
       </c>
     </row>
     <row r="333" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33248,7 +33281,7 @@
       </c>
       <c r="N333">
         <f t="shared" si="29"/>
-        <v>4195.1944444444443</v>
+        <v>443584</v>
       </c>
     </row>
     <row r="334" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33300,7 +33333,7 @@
       </c>
       <c r="N334">
         <f t="shared" si="29"/>
-        <v>3512.5833333333335</v>
+        <v>346630.30555555556</v>
       </c>
     </row>
     <row r="335" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33352,7 +33385,7 @@
       </c>
       <c r="N335">
         <f t="shared" si="29"/>
-        <v>3956.3055555555557</v>
+        <v>389679.13888888888</v>
       </c>
     </row>
     <row r="336" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33404,7 +33437,7 @@
       </c>
       <c r="N336">
         <f t="shared" si="29"/>
-        <v>3979.3611111111113</v>
+        <v>396506.47222222225</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33456,7 +33489,7 @@
       </c>
       <c r="N337">
         <f t="shared" si="29"/>
-        <v>3774.6666666666665</v>
+        <v>386669.30555555556</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33508,7 +33541,7 @@
       </c>
       <c r="N338">
         <f t="shared" si="29"/>
-        <v>3493.75</v>
+        <v>347851.86111111112</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33560,7 +33593,7 @@
       </c>
       <c r="N339">
         <f t="shared" si="29"/>
-        <v>3648.7627118644068</v>
+        <v>365852.82203389832</v>
       </c>
     </row>
     <row r="340" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33612,7 +33645,7 @@
       </c>
       <c r="N340">
         <f t="shared" si="29"/>
-        <v>4595.333333333333</v>
+        <v>472575.41666666669</v>
       </c>
     </row>
     <row r="341" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33664,7 +33697,7 @@
       </c>
       <c r="N341">
         <f t="shared" si="29"/>
-        <v>4176.5084745762715</v>
+        <v>415716.0254237288</v>
       </c>
     </row>
     <row r="342" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33716,7 +33749,7 @@
       </c>
       <c r="N342">
         <f t="shared" si="29"/>
-        <v>4009.2222222222222</v>
+        <v>409748.97222222225</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33768,7 +33801,7 @@
       </c>
       <c r="N343">
         <f t="shared" si="29"/>
-        <v>5107.2777777777774</v>
+        <v>496419</v>
       </c>
     </row>
     <row r="344" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33820,7 +33853,7 @@
       </c>
       <c r="N344">
         <f t="shared" si="29"/>
-        <v>3329.2249999999999</v>
+        <v>342262.22499999998</v>
       </c>
     </row>
     <row r="345" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33872,7 +33905,7 @@
       </c>
       <c r="N345">
         <f t="shared" si="29"/>
-        <v>3573.1111111111113</v>
+        <v>366794.94444444444</v>
       </c>
     </row>
     <row r="346" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33924,7 +33957,7 @@
       </c>
       <c r="N346">
         <f t="shared" si="29"/>
-        <v>3815.5277777777778</v>
+        <v>402601.11111111112</v>
       </c>
     </row>
     <row r="347" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33976,7 +34009,7 @@
       </c>
       <c r="N347">
         <f t="shared" si="29"/>
-        <v>4288.1388888888887</v>
+        <v>434143.05555555556</v>
       </c>
     </row>
     <row r="348" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34028,7 +34061,7 @@
       </c>
       <c r="N348">
         <f t="shared" si="29"/>
-        <v>4168.083333333333</v>
+        <v>423075.52777777775</v>
       </c>
     </row>
     <row r="349" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34080,7 +34113,7 @@
       </c>
       <c r="N349">
         <f t="shared" si="29"/>
-        <v>3878.0555555555557</v>
+        <v>397463.38888888888</v>
       </c>
     </row>
     <row r="350" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34132,7 +34165,7 @@
       </c>
       <c r="N350">
         <f t="shared" si="29"/>
-        <v>3587.3888888888887</v>
+        <v>353168.83333333331</v>
       </c>
     </row>
     <row r="351" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34184,7 +34217,7 @@
       </c>
       <c r="N351">
         <f t="shared" si="29"/>
-        <v>816.7</v>
+        <v>65434.6</v>
       </c>
     </row>
     <row r="352" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34236,7 +34269,7 @@
       </c>
       <c r="N352">
         <f t="shared" si="29"/>
-        <v>836.1</v>
+        <v>66169.399999999994</v>
       </c>
     </row>
     <row r="353" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34288,7 +34321,7 @@
       </c>
       <c r="N353">
         <f t="shared" si="29"/>
-        <v>3828.8611111111113</v>
+        <v>383652.75</v>
       </c>
     </row>
     <row r="354" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34340,7 +34373,7 @@
       </c>
       <c r="N354">
         <f t="shared" si="29"/>
-        <v>4532.1111111111113</v>
+        <v>447258.88888888888</v>
       </c>
     </row>
     <row r="355" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34392,7 +34425,7 @@
       </c>
       <c r="N355">
         <f t="shared" si="29"/>
-        <v>3548.9166666666665</v>
+        <v>362019.19444444444</v>
       </c>
     </row>
     <row r="356" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34444,7 +34477,7 @@
       </c>
       <c r="N356">
         <f t="shared" si="29"/>
-        <v>1023</v>
+        <v>82271.90625</v>
       </c>
     </row>
     <row r="357" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34496,7 +34529,7 @@
       </c>
       <c r="N357">
         <f t="shared" si="29"/>
-        <v>848.64705882352939</v>
+        <v>66282.970588235301</v>
       </c>
     </row>
     <row r="358" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34548,7 +34581,7 @@
       </c>
       <c r="N358">
         <f t="shared" si="29"/>
-        <v>840</v>
+        <v>72345.5625</v>
       </c>
     </row>
     <row r="359" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34600,7 +34633,7 @@
       </c>
       <c r="N359">
         <f t="shared" si="29"/>
-        <v>783</v>
+        <v>63720.1</v>
       </c>
     </row>
     <row r="360" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34652,7 +34685,7 @@
       </c>
       <c r="N360">
         <f t="shared" si="29"/>
-        <v>737.5</v>
+        <v>60422.9</v>
       </c>
     </row>
     <row r="361" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34704,7 +34737,7 @@
       </c>
       <c r="N361">
         <f t="shared" si="29"/>
-        <v>667.9</v>
+        <v>54457.3</v>
       </c>
     </row>
     <row r="362" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34756,7 +34789,7 @@
       </c>
       <c r="N362">
         <f t="shared" si="29"/>
-        <v>1491</v>
+        <v>119116.5</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34808,7 +34841,7 @@
       </c>
       <c r="N363">
         <f t="shared" si="29"/>
-        <v>909.6</v>
+        <v>75629.600000000006</v>
       </c>
     </row>
     <row r="364" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34860,7 +34893,7 @@
       </c>
       <c r="N364">
         <f t="shared" si="29"/>
-        <v>896.2</v>
+        <v>72818.5</v>
       </c>
     </row>
     <row r="365" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34912,7 +34945,7 @@
       </c>
       <c r="N365">
         <f t="shared" si="29"/>
-        <v>787.91666666666663</v>
+        <v>65143</v>
       </c>
     </row>
     <row r="366" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34964,7 +34997,7 @@
       </c>
       <c r="N366">
         <f t="shared" si="29"/>
-        <v>878.11764705882354</v>
+        <v>71632.323529411762</v>
       </c>
     </row>
     <row r="367" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35016,7 +35049,7 @@
       </c>
       <c r="N367">
         <f t="shared" si="29"/>
-        <v>929.4</v>
+        <v>76371.7</v>
       </c>
     </row>
     <row r="368" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35068,7 +35101,7 @@
       </c>
       <c r="N368">
         <f t="shared" si="29"/>
-        <v>976.2</v>
+        <v>78179.399999999994</v>
       </c>
     </row>
     <row r="369" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35120,7 +35153,7 @@
       </c>
       <c r="N369">
         <f t="shared" si="29"/>
-        <v>668.8</v>
+        <v>54410</v>
       </c>
     </row>
     <row r="370" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35172,7 +35205,7 @@
       </c>
       <c r="N370">
         <f t="shared" si="29"/>
-        <v>831.2</v>
+        <v>67771.100000000006</v>
       </c>
     </row>
     <row r="371" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35224,7 +35257,7 @@
       </c>
       <c r="N371">
         <f t="shared" si="29"/>
-        <v>996.83333333333337</v>
+        <v>80966.166666666672</v>
       </c>
     </row>
     <row r="372" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35276,7 +35309,7 @@
       </c>
       <c r="N372">
         <f t="shared" si="29"/>
-        <v>878.16666666666663</v>
+        <v>73705.833333333328</v>
       </c>
     </row>
     <row r="373" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35328,7 +35361,7 @@
       </c>
       <c r="N373">
         <f t="shared" si="29"/>
-        <v>798.4</v>
+        <v>66967.399999999994</v>
       </c>
     </row>
     <row r="374" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35380,7 +35413,7 @@
       </c>
       <c r="N374">
         <f t="shared" si="29"/>
-        <v>971.1</v>
+        <v>81103.8</v>
       </c>
     </row>
     <row r="375" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35432,7 +35465,7 @@
       </c>
       <c r="N375">
         <f t="shared" si="29"/>
-        <v>865.1</v>
+        <v>69789.899999999994</v>
       </c>
     </row>
     <row r="376" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35484,7 +35517,7 @@
       </c>
       <c r="N376">
         <f t="shared" si="29"/>
-        <v>781.3</v>
+        <v>64392</v>
       </c>
     </row>
     <row r="377" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35536,7 +35569,7 @@
       </c>
       <c r="N377">
         <f t="shared" si="29"/>
-        <v>955.41666666666663</v>
+        <v>77014.583333333328</v>
       </c>
     </row>
     <row r="378" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35588,7 +35621,7 @@
       </c>
       <c r="N378">
         <f t="shared" si="29"/>
-        <v>801.08333333333337</v>
+        <v>67247.583333333328</v>
       </c>
     </row>
     <row r="379" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35640,7 +35673,7 @@
       </c>
       <c r="N379">
         <f t="shared" si="29"/>
-        <v>521.1</v>
+        <v>42423</v>
       </c>
     </row>
     <row r="380" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35692,7 +35725,7 @@
       </c>
       <c r="N380">
         <f t="shared" si="29"/>
-        <v>712.16666666666663</v>
+        <v>54877</v>
       </c>
     </row>
     <row r="381" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35744,7 +35777,7 @@
       </c>
       <c r="N381">
         <f t="shared" si="29"/>
-        <v>1602.8571428571429</v>
+        <v>132667.92857142858</v>
       </c>
     </row>
     <row r="382" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35796,7 +35829,7 @@
       </c>
       <c r="N382">
         <f t="shared" si="29"/>
-        <v>556.70000000000005</v>
+        <v>43415.8</v>
       </c>
     </row>
     <row r="383" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35848,7 +35881,7 @@
       </c>
       <c r="N383">
         <f t="shared" si="29"/>
-        <v>1204.0714285714287</v>
+        <v>99238.5</v>
       </c>
     </row>
     <row r="384" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35900,7 +35933,7 @@
       </c>
       <c r="N384">
         <f t="shared" si="29"/>
-        <v>1640.85</v>
+        <v>150787.57500000001</v>
       </c>
     </row>
     <row r="385" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35952,7 +35985,7 @@
       </c>
       <c r="N385">
         <f t="shared" si="29"/>
-        <v>1715.7857142857142</v>
+        <v>147193.78571428571</v>
       </c>
     </row>
     <row r="386" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36004,7 +36037,7 @@
       </c>
       <c r="N386">
         <f t="shared" si="29"/>
-        <v>854.5</v>
+        <v>78139.25</v>
       </c>
     </row>
     <row r="387" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36055,8 +36088,8 @@
         <v>21.334772272204138</v>
       </c>
       <c r="N387">
-        <f t="shared" ref="N387:N450" si="34" xml:space="preserve"> C387/G387</f>
-        <v>1294.6428571428571</v>
+        <f t="shared" ref="N387:N450" si="34" xml:space="preserve"> D387/G387</f>
+        <v>118066.5</v>
       </c>
     </row>
     <row r="388" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36108,7 +36141,7 @@
       </c>
       <c r="N388">
         <f t="shared" si="34"/>
-        <v>1149.3333333333333</v>
+        <v>98508.583333333328</v>
       </c>
     </row>
     <row r="389" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36160,7 +36193,7 @@
       </c>
       <c r="N389">
         <f t="shared" si="34"/>
-        <v>871</v>
+        <v>77080.166666666672</v>
       </c>
     </row>
     <row r="390" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36212,7 +36245,7 @@
       </c>
       <c r="N390">
         <f t="shared" si="34"/>
-        <v>1491.8571428571429</v>
+        <v>134589.5</v>
       </c>
     </row>
     <row r="391" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36264,7 +36297,7 @@
       </c>
       <c r="N391">
         <f t="shared" si="34"/>
-        <v>1412.2857142857142</v>
+        <v>128720.57142857143</v>
       </c>
     </row>
     <row r="392" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36316,7 +36349,7 @@
       </c>
       <c r="N392">
         <f t="shared" si="34"/>
-        <v>1626.2142857142858</v>
+        <v>144680.64285714287</v>
       </c>
     </row>
     <row r="393" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36368,7 +36401,7 @@
       </c>
       <c r="N393">
         <f t="shared" si="34"/>
-        <v>1521.2857142857142</v>
+        <v>140239.78571428571</v>
       </c>
     </row>
     <row r="394" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36420,7 +36453,7 @@
       </c>
       <c r="N394">
         <f t="shared" si="34"/>
-        <v>1488</v>
+        <v>123717.64285714286</v>
       </c>
     </row>
     <row r="395" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36472,7 +36505,7 @@
       </c>
       <c r="N395">
         <f t="shared" si="34"/>
-        <v>1771.575</v>
+        <v>159658.35</v>
       </c>
     </row>
     <row r="396" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36524,7 +36557,7 @@
       </c>
       <c r="N396">
         <f t="shared" si="34"/>
-        <v>2533.6935483870966</v>
+        <v>216163.98387096773</v>
       </c>
     </row>
     <row r="397" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36576,7 +36609,7 @@
       </c>
       <c r="N397">
         <f t="shared" si="34"/>
-        <v>3160.1129032258063</v>
+        <v>249305.32258064515</v>
       </c>
     </row>
     <row r="398" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36628,7 +36661,7 @@
       </c>
       <c r="N398">
         <f t="shared" si="34"/>
-        <v>2492.5645161290322</v>
+        <v>220320.04838709679</v>
       </c>
     </row>
     <row r="399" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36680,7 +36713,7 @@
       </c>
       <c r="N399">
         <f t="shared" si="34"/>
-        <v>896.83333333333337</v>
+        <v>79078.333333333328</v>
       </c>
     </row>
     <row r="400" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36732,7 +36765,7 @@
       </c>
       <c r="N400">
         <f t="shared" si="34"/>
-        <v>2329.6935483870966</v>
+        <v>206410.30645161291</v>
       </c>
     </row>
     <row r="401" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36784,7 +36817,7 @@
       </c>
       <c r="N401">
         <f t="shared" si="34"/>
-        <v>2518.016129032258</v>
+        <v>213216.5806451613</v>
       </c>
     </row>
     <row r="402" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36836,7 +36869,7 @@
       </c>
       <c r="N402">
         <f t="shared" si="34"/>
-        <v>2274.1451612903224</v>
+        <v>195279</v>
       </c>
     </row>
     <row r="403" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36888,7 +36921,7 @@
       </c>
       <c r="N403">
         <f t="shared" si="34"/>
-        <v>2547.1451612903224</v>
+        <v>221821.11290322582</v>
       </c>
     </row>
     <row r="404" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36940,7 +36973,7 @@
       </c>
       <c r="N404">
         <f t="shared" si="34"/>
-        <v>1249.05</v>
+        <v>105479.85</v>
       </c>
     </row>
     <row r="405" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36992,7 +37025,7 @@
       </c>
       <c r="N405">
         <f t="shared" si="34"/>
-        <v>1803.6</v>
+        <v>145504.95000000001</v>
       </c>
     </row>
     <row r="406" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37044,7 +37077,7 @@
       </c>
       <c r="N406">
         <f t="shared" si="34"/>
-        <v>1141.6500000000001</v>
+        <v>100774.2</v>
       </c>
     </row>
     <row r="407" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37096,7 +37129,7 @@
       </c>
       <c r="N407">
         <f t="shared" si="34"/>
-        <v>900.75</v>
+        <v>73433.55</v>
       </c>
     </row>
     <row r="408" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37148,7 +37181,7 @@
       </c>
       <c r="N408">
         <f t="shared" si="34"/>
-        <v>2824.2580645161293</v>
+        <v>238294.06451612903</v>
       </c>
     </row>
     <row r="409" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37200,7 +37233,7 @@
       </c>
       <c r="N409">
         <f t="shared" si="34"/>
-        <v>1168.05</v>
+        <v>93642.75</v>
       </c>
     </row>
     <row r="410" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37252,7 +37285,7 @@
       </c>
       <c r="N410">
         <f t="shared" si="34"/>
-        <v>1203.75</v>
+        <v>98156.4</v>
       </c>
     </row>
     <row r="411" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37304,7 +37337,7 @@
       </c>
       <c r="N411">
         <f t="shared" si="34"/>
-        <v>1442.1</v>
+        <v>115057.95</v>
       </c>
     </row>
     <row r="412" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37356,7 +37389,7 @@
       </c>
       <c r="N412">
         <f t="shared" si="34"/>
-        <v>1482.3</v>
+        <v>127346.4</v>
       </c>
     </row>
     <row r="413" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37408,7 +37441,7 @@
       </c>
       <c r="N413">
         <f t="shared" si="34"/>
-        <v>1562.85</v>
+        <v>146206.65</v>
       </c>
     </row>
     <row r="414" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37460,7 +37493,7 @@
       </c>
       <c r="N414">
         <f t="shared" si="34"/>
-        <v>1903.7249999999999</v>
+        <v>170709</v>
       </c>
     </row>
     <row r="415" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37512,7 +37545,7 @@
       </c>
       <c r="N415">
         <f t="shared" si="34"/>
-        <v>1608.5250000000001</v>
+        <v>150675.6</v>
       </c>
     </row>
     <row r="416" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37564,7 +37597,7 @@
       </c>
       <c r="N416">
         <f t="shared" si="34"/>
-        <v>2231.4473684210525</v>
+        <v>205893.63157894736</v>
       </c>
     </row>
     <row r="417" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37616,7 +37649,7 @@
       </c>
       <c r="N417">
         <f t="shared" si="34"/>
-        <v>1508.8421052631579</v>
+        <v>136218.31578947368</v>
       </c>
     </row>
     <row r="418" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37668,7 +37701,7 @@
       </c>
       <c r="N418">
         <f t="shared" si="34"/>
-        <v>1442.6842105263158</v>
+        <v>128501.05263157895</v>
       </c>
     </row>
     <row r="419" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37720,7 +37753,7 @@
       </c>
       <c r="N419">
         <f t="shared" si="34"/>
-        <v>1729.1842105263158</v>
+        <v>155214.63157894736</v>
       </c>
     </row>
     <row r="420" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37772,7 +37805,7 @@
       </c>
       <c r="N420">
         <f t="shared" si="34"/>
-        <v>1767.3</v>
+        <v>162902.70000000001</v>
       </c>
     </row>
     <row r="421" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37824,7 +37857,7 @@
       </c>
       <c r="N421">
         <f t="shared" si="34"/>
-        <v>2221.3837209302324</v>
+        <v>226798.39534883722</v>
       </c>
     </row>
     <row r="422" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37876,7 +37909,7 @@
       </c>
       <c r="N422">
         <f t="shared" si="34"/>
-        <v>2357.3023255813955</v>
+        <v>228416.81395348837</v>
       </c>
     </row>
     <row r="423" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37928,7 +37961,7 @@
       </c>
       <c r="N423">
         <f t="shared" si="34"/>
-        <v>2132.23828125</v>
+        <v>216953.84765625</v>
       </c>
     </row>
     <row r="424" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37980,7 +38013,7 @@
       </c>
       <c r="N424">
         <f t="shared" si="34"/>
-        <v>1837.9767441860465</v>
+        <v>190916.53661976743</v>
       </c>
     </row>
     <row r="425" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38032,7 +38065,7 @@
       </c>
       <c r="N425">
         <f t="shared" si="34"/>
-        <v>2123.2558139534885</v>
+        <v>213451.81509767444</v>
       </c>
     </row>
     <row r="426" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38084,7 +38117,7 @@
       </c>
       <c r="N426">
         <f t="shared" si="34"/>
-        <v>2124.4883720930234</v>
+        <v>218459.62790697673</v>
       </c>
     </row>
     <row r="427" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38136,7 +38169,7 @@
       </c>
       <c r="N427">
         <f t="shared" si="34"/>
-        <v>2471.4418604651164</v>
+        <v>250808.76744186046</v>
       </c>
     </row>
     <row r="428" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38188,7 +38221,7 @@
       </c>
       <c r="N428">
         <f t="shared" si="34"/>
-        <v>2983.9717741935483</v>
+        <v>314797.2701612903</v>
       </c>
     </row>
     <row r="429" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38240,7 +38273,7 @@
       </c>
       <c r="N429">
         <f t="shared" si="34"/>
-        <v>3144.1439999999998</v>
+        <v>315986.98800000001</v>
       </c>
     </row>
     <row r="430" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38292,7 +38325,7 @@
       </c>
       <c r="N430">
         <f t="shared" si="34"/>
-        <v>2843.0853658536585</v>
+        <v>302909.26976707316</v>
       </c>
     </row>
     <row r="431" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38344,7 +38377,7 @@
       </c>
       <c r="N431">
         <f t="shared" si="34"/>
-        <v>2548.5239999999999</v>
+        <v>270252.64799999999</v>
       </c>
     </row>
     <row r="432" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38396,7 +38429,7 @@
       </c>
       <c r="N432">
         <f t="shared" si="34"/>
-        <v>3278.8023255813955</v>
+        <v>323776.27988372097</v>
       </c>
     </row>
     <row r="433" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38448,7 +38481,7 @@
       </c>
       <c r="N433">
         <f t="shared" si="34"/>
-        <v>2840.652</v>
+        <v>295015.10399999999</v>
       </c>
     </row>
     <row r="434" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38500,7 +38533,7 @@
       </c>
       <c r="N434">
         <f t="shared" si="34"/>
-        <v>2867.1</v>
+        <v>303705.20400000003</v>
       </c>
     </row>
     <row r="435" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38552,7 +38585,7 @@
       </c>
       <c r="N435">
         <f t="shared" si="34"/>
-        <v>3226.0920000000001</v>
+        <v>338171.016</v>
       </c>
     </row>
     <row r="436" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38604,7 +38637,7 @@
       </c>
       <c r="N436">
         <f t="shared" si="34"/>
-        <v>1916.9583333333333</v>
+        <v>166274.83333333334</v>
       </c>
     </row>
     <row r="437" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38656,7 +38689,7 @@
       </c>
       <c r="N437">
         <f t="shared" si="34"/>
-        <v>2106.125</v>
+        <v>165096.91666666666</v>
       </c>
     </row>
     <row r="438" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38708,7 +38741,7 @@
       </c>
       <c r="N438">
         <f t="shared" si="34"/>
-        <v>1749.7297297297298</v>
+        <v>156764.59459459459</v>
       </c>
     </row>
     <row r="439" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38760,7 +38793,7 @@
       </c>
       <c r="N439">
         <f t="shared" si="34"/>
-        <v>1654.8333333333333</v>
+        <v>143838.04166666666</v>
       </c>
     </row>
     <row r="440" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38812,7 +38845,7 @@
       </c>
       <c r="N440">
         <f t="shared" si="34"/>
-        <v>4229.6854838709678</v>
+        <v>436871.20161290321</v>
       </c>
     </row>
     <row r="441" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38864,7 +38897,7 @@
       </c>
       <c r="N441">
         <f t="shared" si="34"/>
-        <v>1952.1666666666667</v>
+        <v>161068.79166666666</v>
       </c>
     </row>
     <row r="442" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38916,7 +38949,7 @@
       </c>
       <c r="N442">
         <f t="shared" si="34"/>
-        <v>1767.9166666666667</v>
+        <v>149072.29166666666</v>
       </c>
     </row>
     <row r="443" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38968,7 +39001,7 @@
       </c>
       <c r="N443">
         <f t="shared" si="34"/>
-        <v>2101.1666666666665</v>
+        <v>174832</v>
       </c>
     </row>
     <row r="444" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39020,7 +39053,7 @@
       </c>
       <c r="N444">
         <f t="shared" si="34"/>
-        <v>1924.7857142857142</v>
+        <v>180040.57142857142</v>
       </c>
     </row>
     <row r="445" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39072,7 +39105,7 @@
       </c>
       <c r="N445">
         <f t="shared" si="34"/>
-        <v>2563.7142857142858</v>
+        <v>230515.85714285713</v>
       </c>
     </row>
     <row r="446" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39124,7 +39157,7 @@
       </c>
       <c r="N446">
         <f t="shared" si="34"/>
-        <v>1762.108695652174</v>
+        <v>168054.39130434784</v>
       </c>
     </row>
     <row r="447" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39176,7 +39209,7 @@
       </c>
       <c r="N447">
         <f t="shared" si="34"/>
-        <v>1558.7142857142858</v>
+        <v>146649.07142857142</v>
       </c>
     </row>
     <row r="448" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39228,7 +39261,7 @@
       </c>
       <c r="N448">
         <f t="shared" si="34"/>
-        <v>2281.9864864864867</v>
+        <v>195362.02702702704</v>
       </c>
     </row>
     <row r="449" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39280,7 +39313,7 @@
       </c>
       <c r="N449">
         <f t="shared" si="34"/>
-        <v>1745.5</v>
+        <v>160006.42857142858</v>
       </c>
     </row>
     <row r="450" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39332,7 +39365,7 @@
       </c>
       <c r="N450">
         <f t="shared" si="34"/>
-        <v>1613.6428571428571</v>
+        <v>150784.71428571429</v>
       </c>
     </row>
     <row r="451" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39383,8 +39416,8 @@
         <v>18.011353993900471</v>
       </c>
       <c r="N451">
-        <f t="shared" ref="N451:N505" si="39" xml:space="preserve"> C451/G451</f>
-        <v>1985.5714285714287</v>
+        <f t="shared" ref="N451:N505" si="39" xml:space="preserve"> D451/G451</f>
+        <v>179631.35714285713</v>
       </c>
     </row>
     <row r="452" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39436,7 +39469,7 @@
       </c>
       <c r="N452">
         <f t="shared" si="39"/>
-        <v>2025.8863636363637</v>
+        <v>186754.36363636365</v>
       </c>
     </row>
     <row r="453" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39488,7 +39521,7 @@
       </c>
       <c r="N453">
         <f t="shared" si="39"/>
-        <v>1062.8823529411766</v>
+        <v>94299.088235294112</v>
       </c>
     </row>
     <row r="454" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39540,7 +39573,7 @@
       </c>
       <c r="N454">
         <f t="shared" si="39"/>
-        <v>1263.7058823529412</v>
+        <v>104372.29411764706</v>
       </c>
     </row>
     <row r="455" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39592,7 +39625,7 @@
       </c>
       <c r="N455">
         <f t="shared" si="39"/>
-        <v>981.61764705882354</v>
+        <v>89800.5</v>
       </c>
     </row>
     <row r="456" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39644,7 +39677,7 @@
       </c>
       <c r="N456">
         <f t="shared" si="39"/>
-        <v>815.9</v>
+        <v>73066.8</v>
       </c>
     </row>
     <row r="457" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39696,7 +39729,7 @@
       </c>
       <c r="N457">
         <f t="shared" si="39"/>
-        <v>893.15625</v>
+        <v>77885.15625</v>
       </c>
     </row>
     <row r="458" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39748,7 +39781,7 @@
       </c>
       <c r="N458">
         <f t="shared" si="39"/>
-        <v>959</v>
+        <v>81566.100000000006</v>
       </c>
     </row>
     <row r="459" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39800,7 +39833,7 @@
       </c>
       <c r="N459">
         <f t="shared" si="39"/>
-        <v>1099.9000000000001</v>
+        <v>91365.5</v>
       </c>
     </row>
     <row r="460" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39852,7 +39885,7 @@
       </c>
       <c r="N460">
         <f t="shared" si="39"/>
-        <v>880.2</v>
+        <v>80763.8</v>
       </c>
     </row>
     <row r="461" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39904,7 +39937,7 @@
       </c>
       <c r="N461">
         <f t="shared" si="39"/>
-        <v>1053.5</v>
+        <v>94127.3</v>
       </c>
     </row>
     <row r="462" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39956,7 +39989,7 @@
       </c>
       <c r="N462">
         <f t="shared" si="39"/>
-        <v>1029.75</v>
+        <v>97852.03125</v>
       </c>
     </row>
     <row r="463" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40008,7 +40041,7 @@
       </c>
       <c r="N463">
         <f t="shared" si="39"/>
-        <v>843.6</v>
+        <v>72077.2</v>
       </c>
     </row>
     <row r="464" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40060,7 +40093,7 @@
       </c>
       <c r="N464">
         <f t="shared" si="39"/>
-        <v>1155.7058823529412</v>
+        <v>103804.05882352941</v>
       </c>
     </row>
     <row r="465" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40112,7 +40145,7 @@
       </c>
       <c r="N465">
         <f t="shared" si="39"/>
-        <v>830</v>
+        <v>74343.100000000006</v>
       </c>
     </row>
     <row r="466" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40164,7 +40197,7 @@
       </c>
       <c r="N466">
         <f t="shared" si="39"/>
-        <v>744.1</v>
+        <v>64233.5</v>
       </c>
     </row>
     <row r="467" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40216,7 +40249,7 @@
       </c>
       <c r="N467">
         <f t="shared" si="39"/>
-        <v>815.3</v>
+        <v>74848.7</v>
       </c>
     </row>
     <row r="468" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40268,7 +40301,7 @@
       </c>
       <c r="N468">
         <f t="shared" si="39"/>
-        <v>1402.5</v>
+        <v>122927.77499999999</v>
       </c>
     </row>
     <row r="469" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40320,7 +40353,7 @@
       </c>
       <c r="N469">
         <f t="shared" si="39"/>
-        <v>1620.078947368421</v>
+        <v>133721.84210526315</v>
       </c>
     </row>
     <row r="470" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40372,7 +40405,7 @@
       </c>
       <c r="N470">
         <f t="shared" si="39"/>
-        <v>1331.4285714285713</v>
+        <v>120903.21428571429</v>
       </c>
     </row>
     <row r="471" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40424,7 +40457,7 @@
       </c>
       <c r="N471">
         <f t="shared" si="39"/>
-        <v>1243.6578947368421</v>
+        <v>113913.94736842105</v>
       </c>
     </row>
     <row r="472" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40476,7 +40509,7 @@
       </c>
       <c r="N472">
         <f t="shared" si="39"/>
-        <v>1065.75</v>
+        <v>96813.75</v>
       </c>
     </row>
     <row r="473" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40528,7 +40561,7 @@
       </c>
       <c r="N473">
         <f t="shared" si="39"/>
-        <v>1430.6052631578948</v>
+        <v>122341.57894736843</v>
       </c>
     </row>
     <row r="474" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40580,7 +40613,7 @@
       </c>
       <c r="N474">
         <f t="shared" si="39"/>
-        <v>1350.3157894736842</v>
+        <v>117123.23684210527</v>
       </c>
     </row>
     <row r="475" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40632,7 +40665,7 @@
       </c>
       <c r="N475">
         <f t="shared" si="39"/>
-        <v>1541.2105263157894</v>
+        <v>130394.05263157895</v>
       </c>
     </row>
     <row r="476" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40684,7 +40717,7 @@
       </c>
       <c r="N476">
         <f t="shared" si="39"/>
-        <v>1639.125</v>
+        <v>142737.07500000001</v>
       </c>
     </row>
     <row r="477" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40736,7 +40769,7 @@
       </c>
       <c r="N477">
         <f t="shared" si="39"/>
-        <v>3654.101694915254</v>
+        <v>378683.05932203389</v>
       </c>
     </row>
     <row r="478" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40788,7 +40821,7 @@
       </c>
       <c r="N478">
         <f t="shared" si="39"/>
-        <v>3805.5749999999998</v>
+        <v>373012.875</v>
       </c>
     </row>
     <row r="479" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40840,7 +40873,7 @@
       </c>
       <c r="N479">
         <f t="shared" si="39"/>
-        <v>3199.601694915254</v>
+        <v>329921.56779661018</v>
       </c>
     </row>
     <row r="480" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40892,7 +40925,7 @@
       </c>
       <c r="N480">
         <f t="shared" si="39"/>
-        <v>2921.55</v>
+        <v>298652.40000000002</v>
       </c>
     </row>
     <row r="481" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40944,7 +40977,7 @@
       </c>
       <c r="N481">
         <f t="shared" si="39"/>
-        <v>3366.65</v>
+        <v>340373.92499999999</v>
       </c>
     </row>
     <row r="482" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -40996,7 +41029,7 @@
       </c>
       <c r="N482">
         <f t="shared" si="39"/>
-        <v>3299.1</v>
+        <v>332373.92499999999</v>
       </c>
     </row>
     <row r="483" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41048,7 +41081,7 @@
       </c>
       <c r="N483">
         <f t="shared" si="39"/>
-        <v>3848.2750000000001</v>
+        <v>384753.7</v>
       </c>
     </row>
     <row r="484" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41100,7 +41133,7 @@
       </c>
       <c r="N484">
         <f t="shared" si="39"/>
-        <v>3769.1111111111113</v>
+        <v>388024.52777777775</v>
       </c>
     </row>
     <row r="485" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41152,7 +41185,7 @@
       </c>
       <c r="N485">
         <f t="shared" si="39"/>
-        <v>3970.8888888888887</v>
+        <v>385418.25</v>
       </c>
     </row>
     <row r="486" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41204,7 +41237,7 @@
       </c>
       <c r="N486">
         <f t="shared" si="39"/>
-        <v>3393.1111111111113</v>
+        <v>350262.86111111112</v>
       </c>
     </row>
     <row r="487" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41256,7 +41289,7 @@
       </c>
       <c r="N487">
         <f t="shared" si="39"/>
-        <v>3091.6388888888887</v>
+        <v>314282.05555555556</v>
       </c>
     </row>
     <row r="488" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41308,7 +41341,7 @@
       </c>
       <c r="N488">
         <f t="shared" si="39"/>
-        <v>3933.9406779661017</v>
+        <v>391871.92372881353</v>
       </c>
     </row>
     <row r="489" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41360,7 +41393,7 @@
       </c>
       <c r="N489">
         <f t="shared" si="39"/>
-        <v>3640</v>
+        <v>367687.44444444444</v>
       </c>
     </row>
     <row r="490" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41412,7 +41445,7 @@
       </c>
       <c r="N490">
         <f t="shared" si="39"/>
-        <v>3453.6388888888887</v>
+        <v>345203.66666666669</v>
       </c>
     </row>
     <row r="491" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41464,7 +41497,7 @@
       </c>
       <c r="N491">
         <f t="shared" si="39"/>
-        <v>4069.8611111111113</v>
+        <v>405468.41666666669</v>
       </c>
     </row>
     <row r="492" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41516,7 +41549,7 @@
       </c>
       <c r="N492">
         <f t="shared" si="39"/>
-        <v>4194</v>
+        <v>415113.91666666669</v>
       </c>
     </row>
     <row r="493" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41568,7 +41601,7 @@
       </c>
       <c r="N493">
         <f t="shared" si="39"/>
-        <v>1194.6428571428571</v>
+        <v>98240.571428571435</v>
       </c>
     </row>
     <row r="494" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41620,7 +41653,7 @@
       </c>
       <c r="N494">
         <f t="shared" si="39"/>
-        <v>944.91666666666663</v>
+        <v>77709.5</v>
       </c>
     </row>
     <row r="495" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41672,7 +41705,7 @@
       </c>
       <c r="N495">
         <f t="shared" si="39"/>
-        <v>574</v>
+        <v>43223.666666666664</v>
       </c>
     </row>
     <row r="496" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41724,7 +41757,7 @@
       </c>
       <c r="N496">
         <f t="shared" si="39"/>
-        <v>729.4</v>
+        <v>58690.400000000001</v>
       </c>
     </row>
     <row r="497" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41776,7 +41809,7 @@
       </c>
       <c r="N497">
         <f t="shared" si="39"/>
-        <v>906.09375</v>
+        <v>76919.4375</v>
       </c>
     </row>
     <row r="498" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41828,7 +41861,7 @@
       </c>
       <c r="N498">
         <f t="shared" si="39"/>
-        <v>863.15625</v>
+        <v>70729.78125</v>
       </c>
     </row>
     <row r="499" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41880,7 +41913,7 @@
       </c>
       <c r="N499">
         <f t="shared" si="39"/>
-        <v>859.5</v>
+        <v>68190</v>
       </c>
     </row>
     <row r="500" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41932,7 +41965,7 @@
       </c>
       <c r="N500">
         <f t="shared" si="39"/>
-        <v>848.66666666666663</v>
+        <v>75011.083333333328</v>
       </c>
     </row>
     <row r="501" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41984,7 +42017,7 @@
       </c>
       <c r="N501">
         <f t="shared" si="39"/>
-        <v>734.75</v>
+        <v>68482</v>
       </c>
     </row>
     <row r="502" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42036,7 +42069,7 @@
       </c>
       <c r="N502">
         <f t="shared" si="39"/>
-        <v>1418.1428571428571</v>
+        <v>121548.64285714286</v>
       </c>
     </row>
     <row r="503" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42088,7 +42121,7 @@
       </c>
       <c r="N503">
         <f t="shared" si="39"/>
-        <v>1353.4285714285713</v>
+        <v>114635.35714285714</v>
       </c>
     </row>
     <row r="504" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42140,7 +42173,7 @@
       </c>
       <c r="N504">
         <f t="shared" si="39"/>
-        <v>937.66666666666663</v>
+        <v>79903.083333333328</v>
       </c>
     </row>
     <row r="505" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42192,7 +42225,7 @@
       </c>
       <c r="N505">
         <f t="shared" si="39"/>
-        <v>791</v>
+        <v>71845.5</v>
       </c>
     </row>
     <row r="506" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -43803,8 +43836,8 @@
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -44082,10 +44115,10 @@
         <v>4.1232164082978988</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="31">
-        <v>135333.72222222222</v>
+        <v>5</v>
+      </c>
+      <c r="G10" s="23">
+        <v>71305.905405405414</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -44107,10 +44140,10 @@
         <v>4.0216682326776523</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="31">
-        <v>128283.09110169491</v>
+        <v>6</v>
+      </c>
+      <c r="G11" s="23">
+        <v>90826.064516129001</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -44132,10 +44165,10 @@
         <v>3.5521316633814233</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="31">
-        <v>105644.35730133756</v>
+        <v>7</v>
+      </c>
+      <c r="G12" s="23">
+        <v>62498.353532051471</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -44157,10 +44190,10 @@
         <v>3.2181418759631057</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="23">
-        <v>90826.064516129001</v>
+        <v>55774.693546365925</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -44182,10 +44215,10 @@
         <v>3.1810920490646737</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G14" s="23">
-        <v>79329.063680959298</v>
+        <v>50737.639598997484</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -44207,10 +44240,10 @@
         <v>3.1741426126189154</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="23">
-        <v>71305.905405405414</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="34">
+        <v>135333.72222222222</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -44232,10 +44265,10 @@
         <v>3.0558456747467897</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="23">
-        <v>62498.353532051471</v>
+        <v>11</v>
+      </c>
+      <c r="G16" s="34">
+        <v>128283.09110169491</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -44255,10 +44288,10 @@
         <v>3.0519961650348932</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17" s="23">
-        <v>55774.693546365925</v>
+        <v>54399.250825593386</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -44280,10 +44313,10 @@
         <v>3.0144844308258985</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="23">
-        <v>54399.250825593386</v>
+        <v>30275.248039215687</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -44305,10 +44338,10 @@
         <v>2.878167757564094</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G19" s="23">
-        <v>50737.639598997484</v>
+        <v>35511.142647058834</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -44330,10 +44363,10 @@
         <v>2.7565764390788541</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="23">
-        <v>41228.100000000006</v>
+        <v>25486.156249999996</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44355,10 +44388,10 @@
         <v>2.736883487455362</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G21" s="23">
-        <v>35511.142647058834</v>
+        <v>2845.1000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44380,10 +44413,10 @@
         <v>2.6341028386368892</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="23">
-        <v>30275.248039215687</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="34">
+        <v>105644.35730133756</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44405,10 +44438,10 @@
         <v>1.0222795908360396</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="23">
-        <v>25486.156249999996</v>
+        <v>79329.063680959298</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44430,10 +44463,10 @@
         <v>0.99902658859403171</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="23">
-        <v>9752.1428571428569</v>
+        <v>41228.100000000006</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44455,10 +44488,10 @@
         <v>0.94873908640314353</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="23">
-        <v>2845.1000000000004</v>
+        <v>1286.1666666666665</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44480,10 +44513,10 @@
         <v>0.93675392019520276</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G26" s="23">
-        <v>1589.25</v>
+        <v>9752.1428571428569</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44505,10 +44538,10 @@
         <v>0.93435415438239044</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="23">
-        <v>1286.1666666666665</v>
+        <v>1589.25</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45841,12 +45874,12 @@
         <v>802447.5</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C129" si="6">B98 / $B$100*100</f>
+        <f t="shared" ref="C98:C100" si="6">B98 / $B$100*100</f>
         <v>1.6170685452211783E-2</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98">
-        <f t="shared" ref="E98:E129" si="7">D98 / $B$100*100</f>
+        <f t="shared" ref="E98:E100" si="7">D98 / $B$100*100</f>
         <v>0</v>
       </c>
     </row>
@@ -45895,7 +45928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C623C171-EB87-47FC-B7D2-A3E5DB125661}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
